--- a/raw_data/20200818_saline/20200818_Sensor2_Test_6.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_6.xlsx
@@ -1,508 +1,924 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E103DDF-4D98-4EAB-9CE7-420EC033707C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>4872.836144</v>
+        <v>4872.8361439999999</v>
       </c>
       <c r="B2" s="1">
         <v>1.353566</v>
       </c>
       <c r="C2" s="1">
-        <v>1244.790000</v>
+        <v>1244.79</v>
       </c>
       <c r="D2" s="1">
-        <v>-309.293000</v>
+        <v>-309.29300000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>4882.904435</v>
+        <v>4882.9044350000004</v>
       </c>
       <c r="G2" s="1">
-        <v>1.356362</v>
+        <v>1.3563620000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>1270.340000</v>
+        <v>1270.3399999999999</v>
       </c>
       <c r="I2" s="1">
-        <v>-266.625000</v>
+        <v>-266.625</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>4893.320917</v>
@@ -511,58 +927,58 @@
         <v>1.359256</v>
       </c>
       <c r="M2" s="1">
-        <v>1305.600000</v>
+        <v>1305.5999999999999</v>
       </c>
       <c r="N2" s="1">
-        <v>-203.400000</v>
+        <v>-203.4</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>4903.829655</v>
+        <v>4903.8296549999995</v>
       </c>
       <c r="Q2" s="1">
-        <v>1.362175</v>
+        <v>1.3621749999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>1317.210000</v>
+        <v>1317.21</v>
       </c>
       <c r="S2" s="1">
-        <v>-185.457000</v>
+        <v>-185.45699999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>4914.727257</v>
+        <v>4914.7272569999996</v>
       </c>
       <c r="V2" s="1">
         <v>1.365202</v>
       </c>
       <c r="W2" s="1">
-        <v>1330.190000</v>
+        <v>1330.19</v>
       </c>
       <c r="X2" s="1">
-        <v>-171.692000</v>
+        <v>-171.69200000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>4925.107533</v>
+        <v>4925.1075330000003</v>
       </c>
       <c r="AA2" s="1">
         <v>1.368085</v>
       </c>
       <c r="AB2" s="1">
-        <v>1347.350000</v>
+        <v>1347.35</v>
       </c>
       <c r="AC2" s="1">
-        <v>-169.567000</v>
+        <v>-169.56700000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>4935.650525</v>
@@ -571,28 +987,28 @@
         <v>1.371014</v>
       </c>
       <c r="AG2" s="1">
-        <v>1360.260000</v>
+        <v>1360.26</v>
       </c>
       <c r="AH2" s="1">
-        <v>-179.462000</v>
+        <v>-179.46199999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>4946.085861</v>
+        <v>4946.0858609999996</v>
       </c>
       <c r="AK2" s="1">
-        <v>1.373913</v>
+        <v>1.3739129999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>1380.830000</v>
+        <v>1380.83</v>
       </c>
       <c r="AM2" s="1">
-        <v>-209.682000</v>
+        <v>-209.68199999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>4956.683841</v>
@@ -601,58 +1017,58 @@
         <v>1.376857</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1402.400000</v>
+        <v>1402.4</v>
       </c>
       <c r="AR2" s="1">
-        <v>-253.914000</v>
+        <v>-253.91399999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>4968.371602</v>
+        <v>4968.3716020000002</v>
       </c>
       <c r="AU2" s="1">
-        <v>1.380103</v>
+        <v>1.3801030000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>1426.830000</v>
+        <v>1426.83</v>
       </c>
       <c r="AW2" s="1">
-        <v>-314.409000</v>
+        <v>-314.40899999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>4979.539529</v>
+        <v>4979.5395289999997</v>
       </c>
       <c r="AZ2" s="1">
         <v>1.383205</v>
       </c>
       <c r="BA2" s="1">
-        <v>1446.020000</v>
+        <v>1446.02</v>
       </c>
       <c r="BB2" s="1">
-        <v>-366.943000</v>
+        <v>-366.94299999999998</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>4990.179669</v>
+        <v>4990.1796690000001</v>
       </c>
       <c r="BE2" s="1">
         <v>1.386161</v>
       </c>
       <c r="BF2" s="1">
-        <v>1530.470000</v>
+        <v>1530.47</v>
       </c>
       <c r="BG2" s="1">
-        <v>-618.201000</v>
+        <v>-618.20100000000002</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>5000.778679</v>
@@ -661,58 +1077,58 @@
         <v>1.389105</v>
       </c>
       <c r="BK2" s="1">
-        <v>1682.970000</v>
+        <v>1682.97</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1070.430000</v>
+        <v>-1070.43</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>5011.554274</v>
+        <v>5011.5542740000001</v>
       </c>
       <c r="BO2" s="1">
-        <v>1.392098</v>
+        <v>1.3920980000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1975.370000</v>
+        <v>1975.37</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1857.840000</v>
+        <v>-1857.84</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>5022.681018</v>
+        <v>5022.6810180000002</v>
       </c>
       <c r="BT2" s="1">
         <v>1.395189</v>
       </c>
       <c r="BU2" s="1">
-        <v>2364.480000</v>
+        <v>2364.48</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2772.000000</v>
+        <v>-2772</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>5033.721004</v>
       </c>
       <c r="BY2" s="1">
-        <v>1.398256</v>
+        <v>1.3982559999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2848.890000</v>
+        <v>2848.89</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3769.690000</v>
+        <v>-3769.69</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>5044.670685</v>
@@ -721,467 +1137,467 @@
         <v>1.401297</v>
       </c>
       <c r="CE2" s="1">
-        <v>4298.420000</v>
+        <v>4298.42</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6180.390000</v>
+        <v>-6180.39</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>4873.219552</v>
+        <v>4873.2195519999996</v>
       </c>
       <c r="B3" s="1">
         <v>1.353672</v>
       </c>
       <c r="C3" s="1">
-        <v>1244.610000</v>
+        <v>1244.6099999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>-309.440000</v>
+        <v>-309.44</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>4883.245714</v>
+        <v>4883.2457139999997</v>
       </c>
       <c r="G3" s="1">
         <v>1.356457</v>
       </c>
       <c r="H3" s="1">
-        <v>1269.950000</v>
+        <v>1269.95</v>
       </c>
       <c r="I3" s="1">
-        <v>-266.760000</v>
+        <v>-266.76</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>4893.704820</v>
+        <v>4893.7048199999999</v>
       </c>
       <c r="L3" s="1">
         <v>1.359362</v>
       </c>
       <c r="M3" s="1">
-        <v>1305.620000</v>
+        <v>1305.6199999999999</v>
       </c>
       <c r="N3" s="1">
-        <v>-203.847000</v>
+        <v>-203.84700000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>4904.564953</v>
+        <v>4904.5649530000001</v>
       </c>
       <c r="Q3" s="1">
         <v>1.362379</v>
       </c>
       <c r="R3" s="1">
-        <v>1317.230000</v>
+        <v>1317.23</v>
       </c>
       <c r="S3" s="1">
-        <v>-185.406000</v>
+        <v>-185.40600000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>4915.061562</v>
+        <v>4915.0615619999999</v>
       </c>
       <c r="V3" s="1">
-        <v>1.365295</v>
+        <v>1.3652949999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>1330.320000</v>
+        <v>1330.32</v>
       </c>
       <c r="X3" s="1">
-        <v>-171.766000</v>
+        <v>-171.76599999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>4925.444315</v>
+        <v>4925.4443149999997</v>
       </c>
       <c r="AA3" s="1">
         <v>1.368179</v>
       </c>
       <c r="AB3" s="1">
-        <v>1347.340000</v>
+        <v>1347.34</v>
       </c>
       <c r="AC3" s="1">
-        <v>-169.659000</v>
+        <v>-169.65899999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>4936.015549</v>
+        <v>4936.0155489999997</v>
       </c>
       <c r="AF3" s="1">
-        <v>1.371115</v>
+        <v>1.3711150000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>1360.250000</v>
+        <v>1360.25</v>
       </c>
       <c r="AH3" s="1">
-        <v>-179.465000</v>
+        <v>-179.465</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>4946.682547</v>
+        <v>4946.6825470000003</v>
       </c>
       <c r="AK3" s="1">
-        <v>1.374078</v>
+        <v>1.3740779999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>1380.790000</v>
+        <v>1380.79</v>
       </c>
       <c r="AM3" s="1">
-        <v>-209.636000</v>
+        <v>-209.636</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>4957.381712</v>
+        <v>4957.3817120000003</v>
       </c>
       <c r="AP3" s="1">
-        <v>1.377050</v>
+        <v>1.3770500000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1402.390000</v>
+        <v>1402.39</v>
       </c>
       <c r="AR3" s="1">
-        <v>-253.910000</v>
+        <v>-253.91</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>4968.813041</v>
+        <v>4968.8130410000003</v>
       </c>
       <c r="AU3" s="1">
         <v>1.380226</v>
       </c>
       <c r="AV3" s="1">
-        <v>1426.820000</v>
+        <v>1426.82</v>
       </c>
       <c r="AW3" s="1">
-        <v>-314.379000</v>
+        <v>-314.37900000000002</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>4979.947203</v>
+        <v>4979.9472029999997</v>
       </c>
       <c r="AZ3" s="1">
         <v>1.383319</v>
       </c>
       <c r="BA3" s="1">
-        <v>1446.060000</v>
+        <v>1446.06</v>
       </c>
       <c r="BB3" s="1">
-        <v>-366.952000</v>
+        <v>-366.952</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>4990.543237</v>
+        <v>4990.5432369999999</v>
       </c>
       <c r="BE3" s="1">
-        <v>1.386262</v>
+        <v>1.3862620000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1530.440000</v>
+        <v>1530.44</v>
       </c>
       <c r="BG3" s="1">
-        <v>-618.197000</v>
+        <v>-618.197</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>5001.178454</v>
+        <v>5001.1784539999999</v>
       </c>
       <c r="BJ3" s="1">
         <v>1.389216</v>
       </c>
       <c r="BK3" s="1">
-        <v>1683.050000</v>
+        <v>1683.05</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1070.430000</v>
+        <v>-1070.43</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>5011.961480</v>
+        <v>5011.9614799999999</v>
       </c>
       <c r="BO3" s="1">
         <v>1.392212</v>
       </c>
       <c r="BP3" s="1">
-        <v>1975.230000</v>
+        <v>1975.23</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1858.020000</v>
+        <v>-1858.02</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>5023.191401</v>
       </c>
       <c r="BT3" s="1">
-        <v>1.395331</v>
+        <v>1.3953310000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>2364.230000</v>
+        <v>2364.23</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2772.540000</v>
+        <v>-2772.54</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>5033.884653</v>
+        <v>5033.8846530000001</v>
       </c>
       <c r="BY3" s="1">
         <v>1.398301</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2848.490000</v>
+        <v>2848.49</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3770.510000</v>
+        <v>-3770.51</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>5044.968253</v>
       </c>
       <c r="CD3" s="1">
-        <v>1.401380</v>
+        <v>1.4013800000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>4280.450000</v>
+        <v>4280.45</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6183.880000</v>
+        <v>-6183.88</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>4873.563279</v>
       </c>
       <c r="B4" s="1">
-        <v>1.353768</v>
+        <v>1.3537680000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>1244.630000</v>
+        <v>1244.6300000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>-309.303000</v>
+        <v>-309.303</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>4883.935148</v>
+        <v>4883.9351479999996</v>
       </c>
       <c r="G4" s="1">
         <v>1.356649</v>
       </c>
       <c r="H4" s="1">
-        <v>1270.070000</v>
+        <v>1270.07</v>
       </c>
       <c r="I4" s="1">
-        <v>-266.575000</v>
+        <v>-266.57499999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>4894.396244</v>
+        <v>4894.3962439999996</v>
       </c>
       <c r="L4" s="1">
-        <v>1.359555</v>
+        <v>1.3595550000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>1305.760000</v>
+        <v>1305.76</v>
       </c>
       <c r="N4" s="1">
-        <v>-203.669000</v>
+        <v>-203.66900000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>4904.911927</v>
+        <v>4904.9119270000001</v>
       </c>
       <c r="Q4" s="1">
         <v>1.362476</v>
       </c>
       <c r="R4" s="1">
-        <v>1317.200000</v>
+        <v>1317.2</v>
       </c>
       <c r="S4" s="1">
-        <v>-185.372000</v>
+        <v>-185.37200000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>4915.403827</v>
+        <v>4915.4038270000001</v>
       </c>
       <c r="V4" s="1">
-        <v>1.365390</v>
+        <v>1.3653900000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>1330.310000</v>
+        <v>1330.31</v>
       </c>
       <c r="X4" s="1">
-        <v>-171.785000</v>
+        <v>-171.785</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>4925.793530</v>
+        <v>4925.7935299999999</v>
       </c>
       <c r="AA4" s="1">
         <v>1.368276</v>
       </c>
       <c r="AB4" s="1">
-        <v>1347.230000</v>
+        <v>1347.23</v>
       </c>
       <c r="AC4" s="1">
-        <v>-169.773000</v>
+        <v>-169.773</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>4936.670764</v>
+        <v>4936.6707640000004</v>
       </c>
       <c r="AF4" s="1">
         <v>1.371297</v>
       </c>
       <c r="AG4" s="1">
-        <v>1360.240000</v>
+        <v>1360.24</v>
       </c>
       <c r="AH4" s="1">
-        <v>-179.454000</v>
+        <v>-179.45400000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>4947.125438</v>
       </c>
       <c r="AK4" s="1">
-        <v>1.374202</v>
+        <v>1.3742019999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>1380.800000</v>
+        <v>1380.8</v>
       </c>
       <c r="AM4" s="1">
-        <v>-209.635000</v>
+        <v>-209.63499999999999</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>4957.800367</v>
+        <v>4957.8003669999998</v>
       </c>
       <c r="AP4" s="1">
         <v>1.377167</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1402.400000</v>
+        <v>1402.4</v>
       </c>
       <c r="AR4" s="1">
-        <v>-253.894000</v>
+        <v>-253.89400000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>4969.173633</v>
+        <v>4969.1736330000003</v>
       </c>
       <c r="AU4" s="1">
-        <v>1.380326</v>
+        <v>1.3803259999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>1426.820000</v>
+        <v>1426.82</v>
       </c>
       <c r="AW4" s="1">
-        <v>-314.424000</v>
+        <v>-314.42399999999998</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>4980.296884</v>
+        <v>4980.2968840000003</v>
       </c>
       <c r="AZ4" s="1">
         <v>1.383416</v>
       </c>
       <c r="BA4" s="1">
-        <v>1446.010000</v>
+        <v>1446.01</v>
       </c>
       <c r="BB4" s="1">
-        <v>-366.990000</v>
+        <v>-366.99</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>4990.905344</v>
+        <v>4990.9053439999998</v>
       </c>
       <c r="BE4" s="1">
         <v>1.386363</v>
       </c>
       <c r="BF4" s="1">
-        <v>1530.490000</v>
+        <v>1530.49</v>
       </c>
       <c r="BG4" s="1">
-        <v>-618.195000</v>
+        <v>-618.19500000000005</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>5001.589301</v>
       </c>
       <c r="BJ4" s="1">
-        <v>1.389330</v>
+        <v>1.38933</v>
       </c>
       <c r="BK4" s="1">
-        <v>1682.900000</v>
+        <v>1682.9</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1070.490000</v>
+        <v>-1070.49</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>5012.382584</v>
@@ -1190,180 +1606,180 @@
         <v>1.392328</v>
       </c>
       <c r="BP4" s="1">
-        <v>1975.160000</v>
+        <v>1975.16</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1858.000000</v>
+        <v>-1858</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>5023.627386</v>
+        <v>5023.6273860000001</v>
       </c>
       <c r="BT4" s="1">
-        <v>1.395452</v>
+        <v>1.3954519999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>2363.860000</v>
+        <v>2363.86</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2772.740000</v>
+        <v>-2772.74</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>5034.304795</v>
       </c>
       <c r="BY4" s="1">
-        <v>1.398418</v>
+        <v>1.3984179999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2848.820000</v>
+        <v>2848.82</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3770.220000</v>
+        <v>-3770.22</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>5045.483100</v>
+        <v>5045.4831000000004</v>
       </c>
       <c r="CD4" s="1">
-        <v>1.401523</v>
+        <v>1.4015230000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>4280.890000</v>
+        <v>4280.8900000000003</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6196.790000</v>
+        <v>-6196.79</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>4874.241807</v>
+        <v>4874.2418070000003</v>
       </c>
       <c r="B5" s="1">
-        <v>1.353956</v>
+        <v>1.3539559999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>1244.650000</v>
+        <v>1244.6500000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>-309.575000</v>
+        <v>-309.57499999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>4884.278849</v>
+        <v>4884.2788490000003</v>
       </c>
       <c r="G5" s="1">
         <v>1.356744</v>
       </c>
       <c r="H5" s="1">
-        <v>1270.330000</v>
+        <v>1270.33</v>
       </c>
       <c r="I5" s="1">
-        <v>-266.698000</v>
+        <v>-266.69799999999998</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>4894.742452</v>
+        <v>4894.7424520000004</v>
       </c>
       <c r="L5" s="1">
-        <v>1.359651</v>
+        <v>1.3596509999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>1305.250000</v>
+        <v>1305.25</v>
       </c>
       <c r="N5" s="1">
-        <v>-203.722000</v>
+        <v>-203.72200000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>4905.261637</v>
+        <v>4905.2616369999996</v>
       </c>
       <c r="Q5" s="1">
         <v>1.362573</v>
       </c>
       <c r="R5" s="1">
-        <v>1317.240000</v>
+        <v>1317.24</v>
       </c>
       <c r="S5" s="1">
-        <v>-185.390000</v>
+        <v>-185.39</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>4916.054055</v>
+        <v>4916.0540549999996</v>
       </c>
       <c r="V5" s="1">
-        <v>1.365571</v>
+        <v>1.3655710000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1330.280000</v>
+        <v>1330.28</v>
       </c>
       <c r="X5" s="1">
-        <v>-171.850000</v>
+        <v>-171.85</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>4926.456649</v>
+        <v>4926.4566489999997</v>
       </c>
       <c r="AA5" s="1">
-        <v>1.368460</v>
+        <v>1.36846</v>
       </c>
       <c r="AB5" s="1">
-        <v>1347.340000</v>
+        <v>1347.34</v>
       </c>
       <c r="AC5" s="1">
-        <v>-169.523000</v>
+        <v>-169.523</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>4937.049212</v>
+        <v>4937.0492119999999</v>
       </c>
       <c r="AF5" s="1">
-        <v>1.371403</v>
+        <v>1.3714029999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>1360.240000</v>
+        <v>1360.24</v>
       </c>
       <c r="AH5" s="1">
-        <v>-179.466000</v>
+        <v>-179.46600000000001</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>4947.523726</v>
+        <v>4947.5237260000004</v>
       </c>
       <c r="AK5" s="1">
         <v>1.374312</v>
       </c>
       <c r="AL5" s="1">
-        <v>1380.810000</v>
+        <v>1380.81</v>
       </c>
       <c r="AM5" s="1">
-        <v>-209.615000</v>
+        <v>-209.61500000000001</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>4958.190689</v>
@@ -1372,315 +1788,315 @@
         <v>1.377275</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1402.400000</v>
+        <v>1402.4</v>
       </c>
       <c r="AR5" s="1">
-        <v>-253.907000</v>
+        <v>-253.90700000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>4969.543616</v>
+        <v>4969.5436159999999</v>
       </c>
       <c r="AU5" s="1">
-        <v>1.380429</v>
+        <v>1.3804289999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>1426.820000</v>
+        <v>1426.82</v>
       </c>
       <c r="AW5" s="1">
-        <v>-314.427000</v>
+        <v>-314.42700000000002</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>4980.889105</v>
+        <v>4980.8891050000002</v>
       </c>
       <c r="AZ5" s="1">
-        <v>1.383580</v>
+        <v>1.38358</v>
       </c>
       <c r="BA5" s="1">
-        <v>1446.070000</v>
+        <v>1446.07</v>
       </c>
       <c r="BB5" s="1">
-        <v>-366.911000</v>
+        <v>-366.911</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>4991.324435</v>
+        <v>4991.3244350000004</v>
       </c>
       <c r="BE5" s="1">
         <v>1.386479</v>
       </c>
       <c r="BF5" s="1">
-        <v>1530.410000</v>
+        <v>1530.41</v>
       </c>
       <c r="BG5" s="1">
-        <v>-618.212000</v>
+        <v>-618.21199999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>5001.929893</v>
+        <v>5001.9298930000004</v>
       </c>
       <c r="BJ5" s="1">
-        <v>1.389425</v>
+        <v>1.3894249999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1682.830000</v>
+        <v>1682.83</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1070.390000</v>
+        <v>-1070.3900000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>5012.782855</v>
+        <v>5012.7828550000004</v>
       </c>
       <c r="BO5" s="1">
-        <v>1.392440</v>
+        <v>1.3924399999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1975.010000</v>
+        <v>1975.01</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1857.860000</v>
+        <v>-1857.86</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>5024.039103</v>
+        <v>5024.0391030000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>1.395566</v>
+        <v>1.3955660000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>2363.710000</v>
+        <v>2363.71</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2772.800000</v>
+        <v>-2772.8</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>5034.726395</v>
+        <v>5034.7263949999997</v>
       </c>
       <c r="BY5" s="1">
-        <v>1.398535</v>
+        <v>1.3985350000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2848.730000</v>
+        <v>2848.73</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3770.940000</v>
+        <v>-3770.94</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>5046.027708</v>
+        <v>5046.0277079999996</v>
       </c>
       <c r="CD5" s="1">
-        <v>1.401674</v>
+        <v>1.4016740000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>4283.880000</v>
+        <v>4283.88</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6183.040000</v>
+        <v>-6183.04</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>4874.586525</v>
+        <v>4874.5865249999997</v>
       </c>
       <c r="B6" s="1">
         <v>1.354052</v>
       </c>
       <c r="C6" s="1">
-        <v>1244.660000</v>
+        <v>1244.6600000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>-309.322000</v>
+        <v>-309.322</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>4884.622112</v>
       </c>
       <c r="G6" s="1">
-        <v>1.356839</v>
+        <v>1.3568389999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>1269.890000</v>
+        <v>1269.8900000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-267.010000</v>
+        <v>-267.01</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>4895.087172</v>
+        <v>4895.0871719999996</v>
       </c>
       <c r="L6" s="1">
-        <v>1.359746</v>
+        <v>1.3597459999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>1305.430000</v>
+        <v>1305.43</v>
       </c>
       <c r="N6" s="1">
-        <v>-203.753000</v>
+        <v>-203.75299999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>4905.914643</v>
+        <v>4905.9146430000001</v>
       </c>
       <c r="Q6" s="1">
         <v>1.362754</v>
       </c>
       <c r="R6" s="1">
-        <v>1317.330000</v>
+        <v>1317.33</v>
       </c>
       <c r="S6" s="1">
-        <v>-185.418000</v>
+        <v>-185.41800000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>4916.437960</v>
+        <v>4916.4379600000002</v>
       </c>
       <c r="V6" s="1">
         <v>1.365677</v>
       </c>
       <c r="W6" s="1">
-        <v>1330.210000</v>
+        <v>1330.21</v>
       </c>
       <c r="X6" s="1">
-        <v>-171.665000</v>
+        <v>-171.66499999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>4926.837081</v>
+        <v>4926.8370809999997</v>
       </c>
       <c r="AA6" s="1">
-        <v>1.368566</v>
+        <v>1.3685659999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>1347.270000</v>
+        <v>1347.27</v>
       </c>
       <c r="AC6" s="1">
-        <v>-169.675000</v>
+        <v>-169.67500000000001</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>4937.394429</v>
+        <v>4937.3944289999999</v>
       </c>
       <c r="AF6" s="1">
-        <v>1.371498</v>
+        <v>1.3714980000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>1360.250000</v>
+        <v>1360.25</v>
       </c>
       <c r="AH6" s="1">
-        <v>-179.442000</v>
+        <v>-179.44200000000001</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>4947.870957</v>
+        <v>4947.8709570000001</v>
       </c>
       <c r="AK6" s="1">
         <v>1.374409</v>
       </c>
       <c r="AL6" s="1">
-        <v>1380.810000</v>
+        <v>1380.81</v>
       </c>
       <c r="AM6" s="1">
-        <v>-209.622000</v>
+        <v>-209.62200000000001</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>4958.567184</v>
+        <v>4958.5671840000005</v>
       </c>
       <c r="AP6" s="1">
-        <v>1.377380</v>
+        <v>1.37738</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1402.370000</v>
+        <v>1402.37</v>
       </c>
       <c r="AR6" s="1">
-        <v>-253.850000</v>
+        <v>-253.85</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>4969.958290</v>
+        <v>4969.9582899999996</v>
       </c>
       <c r="AU6" s="1">
         <v>1.380544</v>
       </c>
       <c r="AV6" s="1">
-        <v>1426.840000</v>
+        <v>1426.84</v>
       </c>
       <c r="AW6" s="1">
-        <v>-314.437000</v>
+        <v>-314.43700000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>4981.015122</v>
+        <v>4981.0151219999998</v>
       </c>
       <c r="AZ6" s="1">
         <v>1.383615</v>
       </c>
       <c r="BA6" s="1">
-        <v>1446.050000</v>
+        <v>1446.05</v>
       </c>
       <c r="BB6" s="1">
-        <v>-366.930000</v>
+        <v>-366.93</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>4991.628484</v>
+        <v>4991.6284839999998</v>
       </c>
       <c r="BE6" s="1">
         <v>1.386563</v>
       </c>
       <c r="BF6" s="1">
-        <v>1530.430000</v>
+        <v>1530.43</v>
       </c>
       <c r="BG6" s="1">
-        <v>-618.218000</v>
+        <v>-618.21799999999996</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>5002.302917</v>
@@ -1689,542 +2105,542 @@
         <v>1.389529</v>
       </c>
       <c r="BK6" s="1">
-        <v>1682.850000</v>
+        <v>1682.85</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1070.420000</v>
+        <v>-1070.42</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>5013.204456</v>
+        <v>5013.2044560000004</v>
       </c>
       <c r="BO6" s="1">
         <v>1.392557</v>
       </c>
       <c r="BP6" s="1">
-        <v>1974.830000</v>
+        <v>1974.83</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1858.130000</v>
+        <v>-1858.13</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>5024.469592</v>
+        <v>5024.4695920000004</v>
       </c>
       <c r="BT6" s="1">
         <v>1.395686</v>
       </c>
       <c r="BU6" s="1">
-        <v>2363.000000</v>
+        <v>2363</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2772.760000</v>
+        <v>-2772.76</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>5035.185196</v>
+        <v>5035.1851960000004</v>
       </c>
       <c r="BY6" s="1">
         <v>1.398663</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2848.850000</v>
+        <v>2848.85</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3770.020000</v>
+        <v>-3770.02</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>5046.559915</v>
+        <v>5046.5599149999998</v>
       </c>
       <c r="CD6" s="1">
-        <v>1.401822</v>
+        <v>1.4018219999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>4283.780000</v>
+        <v>4283.78</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6197.660000</v>
+        <v>-6197.66</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>4874.925791</v>
+        <v>4874.9257909999997</v>
       </c>
       <c r="B7" s="1">
-        <v>1.354146</v>
+        <v>1.3541460000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>1244.570000</v>
+        <v>1244.57</v>
       </c>
       <c r="D7" s="1">
-        <v>-309.336000</v>
+        <v>-309.33600000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>4885.274816</v>
+        <v>4885.2748160000001</v>
       </c>
       <c r="G7" s="1">
         <v>1.357021</v>
       </c>
       <c r="H7" s="1">
-        <v>1269.760000</v>
+        <v>1269.76</v>
       </c>
       <c r="I7" s="1">
-        <v>-266.733000</v>
+        <v>-266.733</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>4895.736948</v>
+        <v>4895.7369479999998</v>
       </c>
       <c r="L7" s="1">
-        <v>1.359927</v>
+        <v>1.3599270000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>1305.380000</v>
+        <v>1305.3800000000001</v>
       </c>
       <c r="N7" s="1">
-        <v>-203.801000</v>
+        <v>-203.80099999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>4906.305685</v>
+        <v>4906.3056850000003</v>
       </c>
       <c r="Q7" s="1">
-        <v>1.362863</v>
+        <v>1.3628629999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>1317.230000</v>
+        <v>1317.23</v>
       </c>
       <c r="S7" s="1">
-        <v>-185.401000</v>
+        <v>-185.40100000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>4916.779206</v>
+        <v>4916.7792060000002</v>
       </c>
       <c r="V7" s="1">
         <v>1.365772</v>
       </c>
       <c r="W7" s="1">
-        <v>1330.280000</v>
+        <v>1330.28</v>
       </c>
       <c r="X7" s="1">
-        <v>-171.653000</v>
+        <v>-171.65299999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>4927.187784</v>
+        <v>4927.1877839999997</v>
       </c>
       <c r="AA7" s="1">
         <v>1.368663</v>
       </c>
       <c r="AB7" s="1">
-        <v>1347.520000</v>
+        <v>1347.52</v>
       </c>
       <c r="AC7" s="1">
-        <v>-169.681000</v>
+        <v>-169.68100000000001</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>4937.737163</v>
+        <v>4937.7371629999998</v>
       </c>
       <c r="AF7" s="1">
         <v>1.371594</v>
       </c>
       <c r="AG7" s="1">
-        <v>1360.260000</v>
+        <v>1360.26</v>
       </c>
       <c r="AH7" s="1">
-        <v>-179.453000</v>
+        <v>-179.453</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>4948.285086</v>
+        <v>4948.2850859999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>1.374524</v>
+        <v>1.3745240000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>1380.810000</v>
+        <v>1380.81</v>
       </c>
       <c r="AM7" s="1">
-        <v>-209.668000</v>
+        <v>-209.66800000000001</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>4958.986270</v>
+        <v>4958.9862700000003</v>
       </c>
       <c r="AP7" s="1">
-        <v>1.377496</v>
+        <v>1.3774960000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1402.420000</v>
+        <v>1402.42</v>
       </c>
       <c r="AR7" s="1">
-        <v>-253.905000</v>
+        <v>-253.905</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>4970.269301</v>
+        <v>4970.2693010000003</v>
       </c>
       <c r="AU7" s="1">
-        <v>1.380630</v>
+        <v>1.38063</v>
       </c>
       <c r="AV7" s="1">
-        <v>1426.810000</v>
+        <v>1426.81</v>
       </c>
       <c r="AW7" s="1">
-        <v>-314.393000</v>
+        <v>-314.39299999999997</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>4981.373202</v>
+        <v>4981.3732019999998</v>
       </c>
       <c r="AZ7" s="1">
         <v>1.383715</v>
       </c>
       <c r="BA7" s="1">
-        <v>1446.080000</v>
+        <v>1446.08</v>
       </c>
       <c r="BB7" s="1">
-        <v>-366.858000</v>
+        <v>-366.858</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>4991.986595</v>
+        <v>4991.9865950000003</v>
       </c>
       <c r="BE7" s="1">
         <v>1.386663</v>
       </c>
       <c r="BF7" s="1">
-        <v>1530.430000</v>
+        <v>1530.43</v>
       </c>
       <c r="BG7" s="1">
-        <v>-618.172000</v>
+        <v>-618.17200000000003</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>5002.707124</v>
+        <v>5002.7071239999996</v>
       </c>
       <c r="BJ7" s="1">
-        <v>1.389641</v>
+        <v>1.3896409999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1682.950000</v>
+        <v>1682.95</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1070.350000</v>
+        <v>-1070.3499999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>5013.597325</v>
+        <v>5013.5973249999997</v>
       </c>
       <c r="BO7" s="1">
         <v>1.392666</v>
       </c>
       <c r="BP7" s="1">
-        <v>1974.980000</v>
+        <v>1974.98</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1857.850000</v>
+        <v>-1857.85</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>5024.895161</v>
+        <v>5024.8951610000004</v>
       </c>
       <c r="BT7" s="1">
         <v>1.395804</v>
       </c>
       <c r="BU7" s="1">
-        <v>2363.140000</v>
+        <v>2363.14</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2773.210000</v>
+        <v>-2773.21</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>5035.601801</v>
+        <v>5035.6018009999998</v>
       </c>
       <c r="BY7" s="1">
-        <v>1.398778</v>
+        <v>1.3987780000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2848.430000</v>
+        <v>2848.43</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3769.760000</v>
+        <v>-3769.76</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>5047.082201</v>
+        <v>5047.0822010000002</v>
       </c>
       <c r="CD7" s="1">
         <v>1.401967</v>
       </c>
       <c r="CE7" s="1">
-        <v>4297.790000</v>
+        <v>4297.79</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6195.810000</v>
+        <v>-6195.81</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>4875.586462</v>
+        <v>4875.5864620000002</v>
       </c>
       <c r="B8" s="1">
-        <v>1.354330</v>
+        <v>1.35433</v>
       </c>
       <c r="C8" s="1">
-        <v>1244.630000</v>
+        <v>1244.6300000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>-309.241000</v>
+        <v>-309.24099999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>4885.657727</v>
+        <v>4885.6577269999998</v>
       </c>
       <c r="G8" s="1">
         <v>1.357127</v>
       </c>
       <c r="H8" s="1">
-        <v>1270.200000</v>
+        <v>1270.2</v>
       </c>
       <c r="I8" s="1">
-        <v>-267.215000</v>
+        <v>-267.21499999999997</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>4896.123314</v>
+        <v>4896.1233140000004</v>
       </c>
       <c r="L8" s="1">
         <v>1.360034</v>
       </c>
       <c r="M8" s="1">
-        <v>1305.380000</v>
+        <v>1305.3800000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-203.540000</v>
+        <v>-203.54</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>4906.654901</v>
+        <v>4906.6549009999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>1.362960</v>
+        <v>1.3629599999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>1317.210000</v>
+        <v>1317.21</v>
       </c>
       <c r="S8" s="1">
-        <v>-185.421000</v>
+        <v>-185.42099999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>4917.128389</v>
+        <v>4917.1283890000004</v>
       </c>
       <c r="V8" s="1">
         <v>1.365869</v>
       </c>
       <c r="W8" s="1">
-        <v>1330.310000</v>
+        <v>1330.31</v>
       </c>
       <c r="X8" s="1">
-        <v>-171.785000</v>
+        <v>-171.785</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>4927.539416</v>
+        <v>4927.5394159999996</v>
       </c>
       <c r="AA8" s="1">
-        <v>1.368761</v>
+        <v>1.3687609999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>1347.290000</v>
+        <v>1347.29</v>
       </c>
       <c r="AC8" s="1">
-        <v>-169.751000</v>
+        <v>-169.751</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>4938.155291</v>
       </c>
       <c r="AF8" s="1">
-        <v>1.371710</v>
+        <v>1.37171</v>
       </c>
       <c r="AG8" s="1">
-        <v>1360.250000</v>
+        <v>1360.25</v>
       </c>
       <c r="AH8" s="1">
-        <v>-179.454000</v>
+        <v>-179.45400000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>4948.585196</v>
       </c>
       <c r="AK8" s="1">
-        <v>1.374607</v>
+        <v>1.3746069999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>1380.800000</v>
+        <v>1380.8</v>
       </c>
       <c r="AM8" s="1">
-        <v>-209.624000</v>
+        <v>-209.624</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>4959.288862</v>
+        <v>4959.2888620000003</v>
       </c>
       <c r="AP8" s="1">
-        <v>1.377580</v>
+        <v>1.37758</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1402.380000</v>
+        <v>1402.38</v>
       </c>
       <c r="AR8" s="1">
-        <v>-253.869000</v>
+        <v>-253.869</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>4970.633358</v>
       </c>
       <c r="AU8" s="1">
-        <v>1.380731</v>
+        <v>1.3807309999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>1426.810000</v>
+        <v>1426.81</v>
       </c>
       <c r="AW8" s="1">
-        <v>-314.397000</v>
+        <v>-314.39699999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>4981.730321</v>
       </c>
       <c r="AZ8" s="1">
-        <v>1.383814</v>
+        <v>1.3838140000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1446.080000</v>
+        <v>1446.08</v>
       </c>
       <c r="BB8" s="1">
-        <v>-366.879000</v>
+        <v>-366.87900000000002</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>4992.346226</v>
+        <v>4992.3462259999997</v>
       </c>
       <c r="BE8" s="1">
         <v>1.386763</v>
       </c>
       <c r="BF8" s="1">
-        <v>1530.380000</v>
+        <v>1530.38</v>
       </c>
       <c r="BG8" s="1">
-        <v>-618.137000</v>
+        <v>-618.13699999999994</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>5003.455091</v>
+        <v>5003.4550909999998</v>
       </c>
       <c r="BJ8" s="1">
-        <v>1.389849</v>
+        <v>1.3898489999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1682.880000</v>
+        <v>1682.88</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1070.450000</v>
+        <v>-1070.45</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>5014.414694</v>
+        <v>5014.4146940000001</v>
       </c>
       <c r="BO8" s="1">
-        <v>1.392893</v>
+        <v>1.3928929999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1974.940000</v>
+        <v>1974.94</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1857.830000</v>
+        <v>-1857.83</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>5025.305848</v>
@@ -2233,120 +2649,120 @@
         <v>1.395918</v>
       </c>
       <c r="BU8" s="1">
-        <v>2362.830000</v>
+        <v>2362.83</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2773.150000</v>
+        <v>-2773.15</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>5036.047706</v>
+        <v>5036.0477060000003</v>
       </c>
       <c r="BY8" s="1">
-        <v>1.398902</v>
+        <v>1.3989020000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2847.740000</v>
+        <v>2847.74</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3769.920000</v>
+        <v>-3769.92</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>5047.593577</v>
+        <v>5047.5935769999996</v>
       </c>
       <c r="CD8" s="1">
         <v>1.402109</v>
       </c>
       <c r="CE8" s="1">
-        <v>4295.280000</v>
+        <v>4295.28</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6180.060000</v>
+        <v>-6180.06</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>4875.951548</v>
       </c>
       <c r="B9" s="1">
-        <v>1.354431</v>
+        <v>1.3544309999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>1244.540000</v>
+        <v>1244.54</v>
       </c>
       <c r="D9" s="1">
-        <v>-309.313000</v>
+        <v>-309.31299999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>4886.002943</v>
+        <v>4886.0029430000004</v>
       </c>
       <c r="G9" s="1">
-        <v>1.357223</v>
+        <v>1.3572230000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>1269.650000</v>
+        <v>1269.6500000000001</v>
       </c>
       <c r="I9" s="1">
-        <v>-267.260000</v>
+        <v>-267.26</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>4896.471010</v>
+        <v>4896.4710100000002</v>
       </c>
       <c r="L9" s="1">
         <v>1.360131</v>
       </c>
       <c r="M9" s="1">
-        <v>1305.420000</v>
+        <v>1305.42</v>
       </c>
       <c r="N9" s="1">
-        <v>-203.706000</v>
+        <v>-203.70599999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>4907.004079</v>
+        <v>4907.0040790000003</v>
       </c>
       <c r="Q9" s="1">
         <v>1.363057</v>
       </c>
       <c r="R9" s="1">
-        <v>1317.300000</v>
+        <v>1317.3</v>
       </c>
       <c r="S9" s="1">
-        <v>-185.486000</v>
+        <v>-185.48599999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>4917.552007</v>
+        <v>4917.5520070000002</v>
       </c>
       <c r="V9" s="1">
-        <v>1.365987</v>
+        <v>1.3659870000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>1330.200000</v>
+        <v>1330.2</v>
       </c>
       <c r="X9" s="1">
-        <v>-171.782000</v>
+        <v>-171.78200000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>4927.952088</v>
@@ -2355,375 +2771,375 @@
         <v>1.368876</v>
       </c>
       <c r="AB9" s="1">
-        <v>1347.350000</v>
+        <v>1347.35</v>
       </c>
       <c r="AC9" s="1">
-        <v>-169.539000</v>
+        <v>-169.53899999999999</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>4938.434042</v>
+        <v>4938.4340419999999</v>
       </c>
       <c r="AF9" s="1">
-        <v>1.371787</v>
+        <v>1.3717870000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>1360.250000</v>
+        <v>1360.25</v>
       </c>
       <c r="AH9" s="1">
-        <v>-179.426000</v>
+        <v>-179.42599999999999</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>4948.935341</v>
+        <v>4948.9353410000003</v>
       </c>
       <c r="AK9" s="1">
-        <v>1.374704</v>
+        <v>1.3747039999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>1380.800000</v>
+        <v>1380.8</v>
       </c>
       <c r="AM9" s="1">
-        <v>-209.651000</v>
+        <v>-209.65100000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>4959.647966</v>
+        <v>4959.6479660000005</v>
       </c>
       <c r="AP9" s="1">
-        <v>1.377680</v>
+        <v>1.37768</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1402.400000</v>
+        <v>1402.4</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.878000</v>
+        <v>-253.87799999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>4970.999870</v>
+        <v>4970.9998699999996</v>
       </c>
       <c r="AU9" s="1">
         <v>1.380833</v>
       </c>
       <c r="AV9" s="1">
-        <v>1426.790000</v>
+        <v>1426.79</v>
       </c>
       <c r="AW9" s="1">
-        <v>-314.416000</v>
+        <v>-314.416</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>4982.450052</v>
+        <v>4982.4500520000001</v>
       </c>
       <c r="AZ9" s="1">
-        <v>1.384014</v>
+        <v>1.3840140000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1446.080000</v>
+        <v>1446.08</v>
       </c>
       <c r="BB9" s="1">
-        <v>-366.894000</v>
+        <v>-366.89400000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>4993.068865</v>
+        <v>4993.0688650000002</v>
       </c>
       <c r="BE9" s="1">
-        <v>1.386964</v>
+        <v>1.3869640000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1530.380000</v>
+        <v>1530.38</v>
       </c>
       <c r="BG9" s="1">
-        <v>-618.190000</v>
+        <v>-618.19000000000005</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>5003.859331</v>
+        <v>5003.8593309999997</v>
       </c>
       <c r="BJ9" s="1">
         <v>1.389961</v>
       </c>
       <c r="BK9" s="1">
-        <v>1682.870000</v>
+        <v>1682.87</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1070.380000</v>
+        <v>-1070.3800000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>5014.810500</v>
+        <v>5014.8104999999996</v>
       </c>
       <c r="BO9" s="1">
         <v>1.393003</v>
       </c>
       <c r="BP9" s="1">
-        <v>1974.920000</v>
+        <v>1974.92</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1857.920000</v>
+        <v>-1857.92</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>5025.737863</v>
+        <v>5025.7378630000003</v>
       </c>
       <c r="BT9" s="1">
-        <v>1.396038</v>
+        <v>1.3960379999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>2362.650000</v>
+        <v>2362.65</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2773.320000</v>
+        <v>-2773.32</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>5036.769506</v>
+        <v>5036.7695059999996</v>
       </c>
       <c r="BY9" s="1">
         <v>1.399103</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2847.970000</v>
+        <v>2847.97</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3770.670000</v>
+        <v>-3770.67</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>5048.169443</v>
+        <v>5048.1694429999998</v>
       </c>
       <c r="CD9" s="1">
         <v>1.402269</v>
       </c>
       <c r="CE9" s="1">
-        <v>4296.720000</v>
+        <v>4296.72</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6195.600000</v>
+        <v>-6195.6</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>4876.293293</v>
+        <v>4876.2932929999997</v>
       </c>
       <c r="B10" s="1">
-        <v>1.354526</v>
+        <v>1.3545259999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>1244.630000</v>
+        <v>1244.6300000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-309.424000</v>
+        <v>-309.42399999999998</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>4886.346670</v>
+        <v>4886.3466699999999</v>
       </c>
       <c r="G10" s="1">
-        <v>1.357319</v>
+        <v>1.3573189999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>1269.940000</v>
+        <v>1269.94</v>
       </c>
       <c r="I10" s="1">
-        <v>-266.662000</v>
+        <v>-266.66199999999998</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>4896.883217</v>
+        <v>4896.8832169999996</v>
       </c>
       <c r="L10" s="1">
-        <v>1.360245</v>
+        <v>1.3602449999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>1305.440000</v>
+        <v>1305.44</v>
       </c>
       <c r="N10" s="1">
-        <v>-203.795000</v>
+        <v>-203.79499999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>4907.425156</v>
+        <v>4907.4251560000002</v>
       </c>
       <c r="Q10" s="1">
-        <v>1.363174</v>
+        <v>1.3631740000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>1317.290000</v>
+        <v>1317.29</v>
       </c>
       <c r="S10" s="1">
-        <v>-185.364000</v>
+        <v>-185.364</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>4917.833205</v>
+        <v>4917.8332049999999</v>
       </c>
       <c r="V10" s="1">
-        <v>1.366065</v>
+        <v>1.3660650000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>1330.240000</v>
+        <v>1330.24</v>
       </c>
       <c r="X10" s="1">
-        <v>-171.746000</v>
+        <v>-171.74600000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>4928.239797</v>
+        <v>4928.2397970000002</v>
       </c>
       <c r="AA10" s="1">
-        <v>1.368955</v>
+        <v>1.3689549999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>1347.230000</v>
+        <v>1347.23</v>
       </c>
       <c r="AC10" s="1">
-        <v>-169.563000</v>
+        <v>-169.56299999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>4938.779753</v>
+        <v>4938.7797529999998</v>
       </c>
       <c r="AF10" s="1">
         <v>1.371883</v>
       </c>
       <c r="AG10" s="1">
-        <v>1360.210000</v>
+        <v>1360.21</v>
       </c>
       <c r="AH10" s="1">
-        <v>-179.467000</v>
+        <v>-179.46700000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>4949.283035</v>
+        <v>4949.2830350000004</v>
       </c>
       <c r="AK10" s="1">
-        <v>1.374801</v>
+        <v>1.3748009999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>1380.780000</v>
+        <v>1380.78</v>
       </c>
       <c r="AM10" s="1">
-        <v>-209.648000</v>
+        <v>-209.648</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>4960.007533</v>
       </c>
       <c r="AP10" s="1">
-        <v>1.377780</v>
+        <v>1.37778</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1402.430000</v>
+        <v>1402.43</v>
       </c>
       <c r="AR10" s="1">
-        <v>-253.877000</v>
+        <v>-253.87700000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>4971.727006</v>
+        <v>4971.7270060000001</v>
       </c>
       <c r="AU10" s="1">
         <v>1.381035</v>
       </c>
       <c r="AV10" s="1">
-        <v>1426.810000</v>
+        <v>1426.81</v>
       </c>
       <c r="AW10" s="1">
-        <v>-314.361000</v>
+        <v>-314.36099999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>4982.809152</v>
+        <v>4982.8091519999998</v>
       </c>
       <c r="AZ10" s="1">
-        <v>1.384114</v>
+        <v>1.3841140000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1446.060000</v>
+        <v>1446.06</v>
       </c>
       <c r="BB10" s="1">
-        <v>-366.893000</v>
+        <v>-366.89299999999997</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>4993.429458</v>
+        <v>4993.4294579999996</v>
       </c>
       <c r="BE10" s="1">
-        <v>1.387064</v>
+        <v>1.3870640000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1530.420000</v>
+        <v>1530.42</v>
       </c>
       <c r="BG10" s="1">
-        <v>-618.135000</v>
+        <v>-618.13499999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>5004.234306</v>
+        <v>5004.2343060000003</v>
       </c>
       <c r="BJ10" s="1">
-        <v>1.390065</v>
+        <v>1.3900650000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1682.800000</v>
+        <v>1682.8</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1070.350000</v>
+        <v>-1070.3499999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>5015.537139</v>
@@ -2732,240 +3148,240 @@
         <v>1.393205</v>
       </c>
       <c r="BP10" s="1">
-        <v>1974.960000</v>
+        <v>1974.96</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1857.860000</v>
+        <v>-1857.86</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>5026.474453</v>
+        <v>5026.4744529999998</v>
       </c>
       <c r="BT10" s="1">
-        <v>1.396243</v>
+        <v>1.3962429999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>2362.100000</v>
+        <v>2362.1</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2772.820000</v>
+        <v>-2772.82</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>5036.894871</v>
+        <v>5036.8948710000004</v>
       </c>
       <c r="BY10" s="1">
-        <v>1.399137</v>
+        <v>1.3991370000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2847.770000</v>
+        <v>2847.77</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3770.570000</v>
+        <v>-3770.57</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>5048.652537</v>
+        <v>5048.6525369999999</v>
       </c>
       <c r="CD10" s="1">
-        <v>1.402403</v>
+        <v>1.4024030000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>4298.160000</v>
+        <v>4298.16</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6198.260000</v>
+        <v>-6198.26</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>4876.636988</v>
+        <v>4876.6369880000002</v>
       </c>
       <c r="B11" s="1">
-        <v>1.354621</v>
+        <v>1.3546210000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>1244.520000</v>
+        <v>1244.52</v>
       </c>
       <c r="D11" s="1">
-        <v>-309.273000</v>
+        <v>-309.27300000000002</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>4886.769262</v>
+        <v>4886.7692619999998</v>
       </c>
       <c r="G11" s="1">
-        <v>1.357436</v>
+        <v>1.3574360000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>1270.480000</v>
+        <v>1270.48</v>
       </c>
       <c r="I11" s="1">
-        <v>-266.720000</v>
+        <v>-266.72000000000003</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>4897.163920</v>
+        <v>4897.16392</v>
       </c>
       <c r="L11" s="1">
-        <v>1.360323</v>
+        <v>1.3603229999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>1305.410000</v>
+        <v>1305.4100000000001</v>
       </c>
       <c r="N11" s="1">
-        <v>-203.729000</v>
+        <v>-203.72900000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>4907.704936</v>
+        <v>4907.7049360000001</v>
       </c>
       <c r="Q11" s="1">
         <v>1.363251</v>
       </c>
       <c r="R11" s="1">
-        <v>1317.330000</v>
+        <v>1317.33</v>
       </c>
       <c r="S11" s="1">
-        <v>-185.347000</v>
+        <v>-185.34700000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>4918.175446</v>
+        <v>4918.1754460000002</v>
       </c>
       <c r="V11" s="1">
-        <v>1.366160</v>
+        <v>1.36616</v>
       </c>
       <c r="W11" s="1">
-        <v>1330.270000</v>
+        <v>1330.27</v>
       </c>
       <c r="X11" s="1">
-        <v>-171.735000</v>
+        <v>-171.73500000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>4928.586967</v>
+        <v>4928.5869670000002</v>
       </c>
       <c r="AA11" s="1">
-        <v>1.369052</v>
+        <v>1.3690519999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>1347.470000</v>
+        <v>1347.47</v>
       </c>
       <c r="AC11" s="1">
-        <v>-169.408000</v>
+        <v>-169.40799999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>4939.122490</v>
+        <v>4939.1224899999997</v>
       </c>
       <c r="AF11" s="1">
-        <v>1.371978</v>
+        <v>1.3719779999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>1360.290000</v>
+        <v>1360.29</v>
       </c>
       <c r="AH11" s="1">
-        <v>-179.454000</v>
+        <v>-179.45400000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>4949.978426</v>
+        <v>4949.9784259999997</v>
       </c>
       <c r="AK11" s="1">
         <v>1.374994</v>
       </c>
       <c r="AL11" s="1">
-        <v>1380.770000</v>
+        <v>1380.77</v>
       </c>
       <c r="AM11" s="1">
-        <v>-209.652000</v>
+        <v>-209.65199999999999</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>4960.728220</v>
+        <v>4960.72822</v>
       </c>
       <c r="AP11" s="1">
-        <v>1.377980</v>
+        <v>1.37798</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1402.390000</v>
+        <v>1402.39</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.874000</v>
+        <v>-253.874</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>4972.121853</v>
+        <v>4972.1218529999996</v>
       </c>
       <c r="AU11" s="1">
-        <v>1.381145</v>
+        <v>1.3811450000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>1426.800000</v>
+        <v>1426.8</v>
       </c>
       <c r="AW11" s="1">
-        <v>-314.322000</v>
+        <v>-314.322</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>4983.169247</v>
+        <v>4983.1692469999998</v>
       </c>
       <c r="AZ11" s="1">
-        <v>1.384214</v>
+        <v>1.3842140000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1446.050000</v>
+        <v>1446.05</v>
       </c>
       <c r="BB11" s="1">
-        <v>-366.911000</v>
+        <v>-366.911</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>4993.794048</v>
+        <v>4993.7940479999997</v>
       </c>
       <c r="BE11" s="1">
         <v>1.387165</v>
       </c>
       <c r="BF11" s="1">
-        <v>1530.420000</v>
+        <v>1530.42</v>
       </c>
       <c r="BG11" s="1">
-        <v>-618.180000</v>
+        <v>-618.17999999999995</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>5004.927713</v>
@@ -2974,180 +3390,180 @@
         <v>1.390258</v>
       </c>
       <c r="BK11" s="1">
-        <v>1682.770000</v>
+        <v>1682.77</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1070.350000</v>
+        <v>-1070.3499999999999</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>5016.044585</v>
+        <v>5016.0445849999996</v>
       </c>
       <c r="BO11" s="1">
         <v>1.393346</v>
       </c>
       <c r="BP11" s="1">
-        <v>1974.880000</v>
+        <v>1974.88</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1857.670000</v>
+        <v>-1857.67</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>5026.611317</v>
+        <v>5026.6113169999999</v>
       </c>
       <c r="BT11" s="1">
-        <v>1.396281</v>
+        <v>1.3962810000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>2362.030000</v>
+        <v>2362.0300000000002</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2773.200000</v>
+        <v>-2773.2</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>5037.344248</v>
+        <v>5037.3442480000003</v>
       </c>
       <c r="BY11" s="1">
         <v>1.399262</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2848.380000</v>
+        <v>2848.38</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3770.080000</v>
+        <v>-3770.08</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>5049.171352</v>
+        <v>5049.1713520000003</v>
       </c>
       <c r="CD11" s="1">
-        <v>1.402548</v>
+        <v>1.4025479999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>4296.460000</v>
+        <v>4296.46</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6179.350000</v>
+        <v>-6179.35</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>4877.062554</v>
+        <v>4877.0625540000001</v>
       </c>
       <c r="B12" s="1">
-        <v>1.354740</v>
+        <v>1.3547400000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>1244.490000</v>
+        <v>1244.49</v>
       </c>
       <c r="D12" s="1">
-        <v>-309.344000</v>
+        <v>-309.34399999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>4887.044045</v>
+        <v>4887.0440449999996</v>
       </c>
       <c r="G12" s="1">
-        <v>1.357512</v>
+        <v>1.3575120000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>1270.210000</v>
+        <v>1270.21</v>
       </c>
       <c r="I12" s="1">
-        <v>-266.944000</v>
+        <v>-266.94400000000002</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>4897.508175</v>
+        <v>4897.5081749999999</v>
       </c>
       <c r="L12" s="1">
         <v>1.360419</v>
       </c>
       <c r="M12" s="1">
-        <v>1305.280000</v>
+        <v>1305.28</v>
       </c>
       <c r="N12" s="1">
-        <v>-203.746000</v>
+        <v>-203.74600000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>4908.054579</v>
+        <v>4908.0545789999996</v>
       </c>
       <c r="Q12" s="1">
         <v>1.363348</v>
       </c>
       <c r="R12" s="1">
-        <v>1317.330000</v>
+        <v>1317.33</v>
       </c>
       <c r="S12" s="1">
-        <v>-185.409000</v>
+        <v>-185.40899999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>4918.520164</v>
+        <v>4918.5201639999996</v>
       </c>
       <c r="V12" s="1">
-        <v>1.366256</v>
+        <v>1.3662559999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>1330.240000</v>
+        <v>1330.24</v>
       </c>
       <c r="X12" s="1">
-        <v>-171.862000</v>
+        <v>-171.86199999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>4928.937180</v>
+        <v>4928.9371799999999</v>
       </c>
       <c r="AA12" s="1">
-        <v>1.369149</v>
+        <v>1.3691489999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>1347.370000</v>
+        <v>1347.37</v>
       </c>
       <c r="AC12" s="1">
-        <v>-169.644000</v>
+        <v>-169.64400000000001</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>4939.808493</v>
+        <v>4939.8084930000005</v>
       </c>
       <c r="AF12" s="1">
         <v>1.372169</v>
       </c>
       <c r="AG12" s="1">
-        <v>1360.200000</v>
+        <v>1360.2</v>
       </c>
       <c r="AH12" s="1">
-        <v>-179.457000</v>
+        <v>-179.45699999999999</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>4950.330586</v>
@@ -3156,315 +3572,315 @@
         <v>1.375092</v>
       </c>
       <c r="AL12" s="1">
-        <v>1380.800000</v>
+        <v>1380.8</v>
       </c>
       <c r="AM12" s="1">
-        <v>-209.626000</v>
+        <v>-209.626</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>4961.090796</v>
+        <v>4961.0907960000004</v>
       </c>
       <c r="AP12" s="1">
-        <v>1.378081</v>
+        <v>1.3780809999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1402.390000</v>
+        <v>1402.39</v>
       </c>
       <c r="AR12" s="1">
-        <v>-253.893000</v>
+        <v>-253.893</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>4972.486381</v>
+        <v>4972.4863809999997</v>
       </c>
       <c r="AU12" s="1">
         <v>1.381246</v>
       </c>
       <c r="AV12" s="1">
-        <v>1426.800000</v>
+        <v>1426.8</v>
       </c>
       <c r="AW12" s="1">
-        <v>-314.347000</v>
+        <v>-314.34699999999998</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>4983.832861</v>
+        <v>4983.8328609999999</v>
       </c>
       <c r="AZ12" s="1">
         <v>1.384398</v>
       </c>
       <c r="BA12" s="1">
-        <v>1446.080000</v>
+        <v>1446.08</v>
       </c>
       <c r="BB12" s="1">
-        <v>-366.880000</v>
+        <v>-366.88</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>4994.459648</v>
       </c>
       <c r="BE12" s="1">
-        <v>1.387350</v>
+        <v>1.3873500000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1530.420000</v>
+        <v>1530.42</v>
       </c>
       <c r="BG12" s="1">
-        <v>-618.139000</v>
+        <v>-618.13900000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>5005.390977</v>
       </c>
       <c r="BJ12" s="1">
-        <v>1.390386</v>
+        <v>1.3903859999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1682.850000</v>
+        <v>1682.85</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1070.330000</v>
+        <v>-1070.33</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>5016.461193</v>
+        <v>5016.4611930000001</v>
       </c>
       <c r="BO12" s="1">
-        <v>1.393461</v>
+        <v>1.3934610000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1974.960000</v>
+        <v>1974.96</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1857.730000</v>
+        <v>-1857.73</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>5027.021537</v>
+        <v>5027.0215369999996</v>
       </c>
       <c r="BT12" s="1">
-        <v>1.396395</v>
+        <v>1.3963950000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>2361.810000</v>
+        <v>2361.81</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2772.930000</v>
+        <v>-2772.93</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>5037.774278</v>
+        <v>5037.7742779999999</v>
       </c>
       <c r="BY12" s="1">
-        <v>1.399382</v>
+        <v>1.3993819999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2847.920000</v>
+        <v>2847.92</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3770.160000</v>
+        <v>-3770.16</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>5049.689672</v>
+        <v>5049.6896720000004</v>
       </c>
       <c r="CD12" s="1">
         <v>1.402692</v>
       </c>
       <c r="CE12" s="1">
-        <v>4301.290000</v>
+        <v>4301.29</v>
       </c>
       <c r="CF12" s="1">
-        <v>-6187.500000</v>
+        <v>-6187.5</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>4877.330396</v>
+        <v>4877.3303960000003</v>
       </c>
       <c r="B13" s="1">
         <v>1.354814</v>
       </c>
       <c r="C13" s="1">
-        <v>1244.670000</v>
+        <v>1244.67</v>
       </c>
       <c r="D13" s="1">
-        <v>-309.413000</v>
+        <v>-309.41300000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>4887.389757</v>
+        <v>4887.3897569999999</v>
       </c>
       <c r="G13" s="1">
-        <v>1.357608</v>
+        <v>1.3576079999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>1270.090000</v>
+        <v>1270.0899999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-267.064000</v>
+        <v>-267.06400000000002</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>4897.856336</v>
+        <v>4897.8563359999998</v>
       </c>
       <c r="L13" s="1">
-        <v>1.360516</v>
+        <v>1.3605160000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>1305.430000</v>
+        <v>1305.43</v>
       </c>
       <c r="N13" s="1">
-        <v>-203.744000</v>
+        <v>-203.744</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>4908.404753</v>
+        <v>4908.4047529999998</v>
       </c>
       <c r="Q13" s="1">
-        <v>1.363446</v>
+        <v>1.3634459999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>1317.220000</v>
+        <v>1317.22</v>
       </c>
       <c r="S13" s="1">
-        <v>-185.432000</v>
+        <v>-185.43199999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>4919.207123</v>
+        <v>4919.2071230000001</v>
       </c>
       <c r="V13" s="1">
         <v>1.366446</v>
       </c>
       <c r="W13" s="1">
-        <v>1330.230000</v>
+        <v>1330.23</v>
       </c>
       <c r="X13" s="1">
-        <v>-171.664000</v>
+        <v>-171.66399999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>4929.637989</v>
+        <v>4929.6379889999998</v>
       </c>
       <c r="AA13" s="1">
-        <v>1.369344</v>
+        <v>1.3693439999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>1347.270000</v>
+        <v>1347.27</v>
       </c>
       <c r="AC13" s="1">
-        <v>-169.381000</v>
+        <v>-169.381</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>4940.152679</v>
+        <v>4940.1526789999998</v>
       </c>
       <c r="AF13" s="1">
-        <v>1.372265</v>
+        <v>1.3722650000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>1360.230000</v>
+        <v>1360.23</v>
       </c>
       <c r="AH13" s="1">
-        <v>-179.457000</v>
+        <v>-179.45699999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>4950.678319</v>
+        <v>4950.6783189999996</v>
       </c>
       <c r="AK13" s="1">
-        <v>1.375188</v>
+        <v>1.3751880000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>1380.790000</v>
+        <v>1380.79</v>
       </c>
       <c r="AM13" s="1">
-        <v>-209.607000</v>
+        <v>-209.607</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>4961.450891</v>
+        <v>4961.4508910000004</v>
       </c>
       <c r="AP13" s="1">
-        <v>1.378181</v>
+        <v>1.3781810000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1402.410000</v>
+        <v>1402.41</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.852000</v>
+        <v>-253.852</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>4973.162925</v>
+        <v>4973.1629249999996</v>
       </c>
       <c r="AU13" s="1">
-        <v>1.381434</v>
+        <v>1.3814340000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>1426.780000</v>
+        <v>1426.78</v>
       </c>
       <c r="AW13" s="1">
-        <v>-314.336000</v>
+        <v>-314.33600000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>4984.275293</v>
+        <v>4984.2752929999997</v>
       </c>
       <c r="AZ13" s="1">
-        <v>1.384521</v>
+        <v>1.3845209999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1446.100000</v>
+        <v>1446.1</v>
       </c>
       <c r="BB13" s="1">
-        <v>-366.851000</v>
+        <v>-366.851</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>4994.900095</v>
@@ -3473,135 +3889,135 @@
         <v>1.387472</v>
       </c>
       <c r="BF13" s="1">
-        <v>1530.430000</v>
+        <v>1530.43</v>
       </c>
       <c r="BG13" s="1">
-        <v>-618.131000</v>
+        <v>-618.13099999999997</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>5005.780866</v>
+        <v>5005.7808660000001</v>
       </c>
       <c r="BJ13" s="1">
         <v>1.390495</v>
       </c>
       <c r="BK13" s="1">
-        <v>1682.850000</v>
+        <v>1682.85</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1070.360000</v>
+        <v>-1070.3599999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>5016.857491</v>
+        <v>5016.8574909999998</v>
       </c>
       <c r="BO13" s="1">
         <v>1.393572</v>
       </c>
       <c r="BP13" s="1">
-        <v>1974.840000</v>
+        <v>1974.84</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1857.730000</v>
+        <v>-1857.73</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>5027.453755</v>
+        <v>5027.4537549999995</v>
       </c>
       <c r="BT13" s="1">
         <v>1.396515</v>
       </c>
       <c r="BU13" s="1">
-        <v>2361.270000</v>
+        <v>2361.27</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2772.540000</v>
+        <v>-2772.54</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>5038.194886</v>
+        <v>5038.1948860000002</v>
       </c>
       <c r="BY13" s="1">
         <v>1.399499</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2848.580000</v>
+        <v>2848.58</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3770.530000</v>
+        <v>-3770.53</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>5050.241221</v>
+        <v>5050.2412210000002</v>
       </c>
       <c r="CD13" s="1">
-        <v>1.402845</v>
+        <v>1.4028449999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>4294.620000</v>
+        <v>4294.62</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6199.750000</v>
+        <v>-6199.75</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>4877.673130</v>
+        <v>4877.6731300000001</v>
       </c>
       <c r="B14" s="1">
-        <v>1.354909</v>
+        <v>1.3549089999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>1244.730000</v>
+        <v>1244.73</v>
       </c>
       <c r="D14" s="1">
-        <v>-309.249000</v>
+        <v>-309.24900000000002</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>4887.732816</v>
+        <v>4887.7328159999997</v>
       </c>
       <c r="G14" s="1">
         <v>1.357704</v>
       </c>
       <c r="H14" s="1">
-        <v>1269.840000</v>
+        <v>1269.8399999999999</v>
       </c>
       <c r="I14" s="1">
-        <v>-267.102000</v>
+        <v>-267.10199999999998</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>4898.550238</v>
+        <v>4898.5502379999998</v>
       </c>
       <c r="L14" s="1">
         <v>1.360708</v>
       </c>
       <c r="M14" s="1">
-        <v>1305.740000</v>
+        <v>1305.74</v>
       </c>
       <c r="N14" s="1">
-        <v>-203.556000</v>
+        <v>-203.55600000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>4909.100144</v>
@@ -3610,178 +4026,178 @@
         <v>1.363639</v>
       </c>
       <c r="R14" s="1">
-        <v>1317.180000</v>
+        <v>1317.18</v>
       </c>
       <c r="S14" s="1">
-        <v>-185.396000</v>
+        <v>-185.39599999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>4919.550392</v>
+        <v>4919.5503920000001</v>
       </c>
       <c r="V14" s="1">
-        <v>1.366542</v>
+        <v>1.3665419999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>1330.190000</v>
+        <v>1330.19</v>
       </c>
       <c r="X14" s="1">
-        <v>-171.696000</v>
+        <v>-171.696</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>4930.019908</v>
+        <v>4930.0199080000002</v>
       </c>
       <c r="AA14" s="1">
-        <v>1.369450</v>
+        <v>1.3694500000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>1347.490000</v>
+        <v>1347.49</v>
       </c>
       <c r="AC14" s="1">
-        <v>-169.527000</v>
+        <v>-169.52699999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>4940.496439</v>
+        <v>4940.4964389999996</v>
       </c>
       <c r="AF14" s="1">
-        <v>1.372360</v>
+        <v>1.37236</v>
       </c>
       <c r="AG14" s="1">
-        <v>1360.250000</v>
+        <v>1360.25</v>
       </c>
       <c r="AH14" s="1">
-        <v>-179.464000</v>
+        <v>-179.464</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>4951.331512</v>
+        <v>4951.3315119999997</v>
       </c>
       <c r="AK14" s="1">
-        <v>1.375370</v>
+        <v>1.37537</v>
       </c>
       <c r="AL14" s="1">
-        <v>1380.790000</v>
+        <v>1380.79</v>
       </c>
       <c r="AM14" s="1">
-        <v>-209.637000</v>
+        <v>-209.637</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>4962.138842</v>
+        <v>4962.1388420000003</v>
       </c>
       <c r="AP14" s="1">
-        <v>1.378372</v>
+        <v>1.3783719999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1402.410000</v>
+        <v>1402.41</v>
       </c>
       <c r="AR14" s="1">
-        <v>-253.852000</v>
+        <v>-253.852</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>4973.613291</v>
+        <v>4973.6132909999997</v>
       </c>
       <c r="AU14" s="1">
         <v>1.381559</v>
       </c>
       <c r="AV14" s="1">
-        <v>1426.820000</v>
+        <v>1426.82</v>
       </c>
       <c r="AW14" s="1">
-        <v>-314.341000</v>
+        <v>-314.34100000000001</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>4984.637869</v>
+        <v>4984.6378690000001</v>
       </c>
       <c r="AZ14" s="1">
         <v>1.384622</v>
       </c>
       <c r="BA14" s="1">
-        <v>1446.100000</v>
+        <v>1446.1</v>
       </c>
       <c r="BB14" s="1">
-        <v>-366.914000</v>
+        <v>-366.91399999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>4995.262671</v>
+        <v>4995.2626710000004</v>
       </c>
       <c r="BE14" s="1">
-        <v>1.387573</v>
+        <v>1.3875729999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1530.410000</v>
+        <v>1530.41</v>
       </c>
       <c r="BG14" s="1">
-        <v>-618.106000</v>
+        <v>-618.10599999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>5006.157327</v>
+        <v>5006.1573269999999</v>
       </c>
       <c r="BJ14" s="1">
-        <v>1.390599</v>
+        <v>1.3905989999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1682.850000</v>
+        <v>1682.85</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1070.340000</v>
+        <v>-1070.3399999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>5017.267681</v>
+        <v>5017.2676810000003</v>
       </c>
       <c r="BO14" s="1">
-        <v>1.393685</v>
+        <v>1.3936850000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1974.940000</v>
+        <v>1974.94</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1857.710000</v>
+        <v>-1857.71</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>5027.866692</v>
+        <v>5027.8666919999996</v>
       </c>
       <c r="BT14" s="1">
-        <v>1.396630</v>
+        <v>1.39663</v>
       </c>
       <c r="BU14" s="1">
-        <v>2361.050000</v>
+        <v>2361.0500000000002</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2772.820000</v>
+        <v>-2772.82</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>5038.618469</v>
@@ -3790,105 +4206,105 @@
         <v>1.399616</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2848.290000</v>
+        <v>2848.29</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3770.240000</v>
+        <v>-3770.24</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>5050.770949</v>
+        <v>5050.7709489999997</v>
       </c>
       <c r="CD14" s="1">
         <v>1.402992</v>
       </c>
       <c r="CE14" s="1">
-        <v>4299.110000</v>
+        <v>4299.1099999999997</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6181.670000</v>
+        <v>-6181.67</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>4878.014874</v>
+        <v>4878.0148740000004</v>
       </c>
       <c r="B15" s="1">
-        <v>1.355004</v>
+        <v>1.3550040000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>1244.790000</v>
+        <v>1244.79</v>
       </c>
       <c r="D15" s="1">
-        <v>-309.108000</v>
+        <v>-309.108</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>4888.421965</v>
+        <v>4888.4219649999995</v>
       </c>
       <c r="G15" s="1">
-        <v>1.357895</v>
+        <v>1.3578950000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>1270.180000</v>
+        <v>1270.18</v>
       </c>
       <c r="I15" s="1">
-        <v>-266.729000</v>
+        <v>-266.72899999999998</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>4898.898430</v>
+        <v>4898.8984300000002</v>
       </c>
       <c r="L15" s="1">
         <v>1.360805</v>
       </c>
       <c r="M15" s="1">
-        <v>1305.440000</v>
+        <v>1305.44</v>
       </c>
       <c r="N15" s="1">
-        <v>-203.984000</v>
+        <v>-203.98400000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>4909.445888</v>
+        <v>4909.4458880000002</v>
       </c>
       <c r="Q15" s="1">
-        <v>1.363735</v>
+        <v>1.3637349999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>1317.170000</v>
+        <v>1317.17</v>
       </c>
       <c r="S15" s="1">
-        <v>-185.305000</v>
+        <v>-185.30500000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>4919.894082</v>
+        <v>4919.8940819999998</v>
       </c>
       <c r="V15" s="1">
-        <v>1.366637</v>
+        <v>1.3666370000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>1330.180000</v>
+        <v>1330.18</v>
       </c>
       <c r="X15" s="1">
-        <v>-171.830000</v>
+        <v>-171.83</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>4930.643908</v>
@@ -3897,934 +4313,934 @@
         <v>1.369623</v>
       </c>
       <c r="AB15" s="1">
-        <v>1347.470000</v>
+        <v>1347.47</v>
       </c>
       <c r="AC15" s="1">
-        <v>-169.712000</v>
+        <v>-169.71199999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>4941.145703</v>
+        <v>4941.1457030000001</v>
       </c>
       <c r="AF15" s="1">
-        <v>1.372540</v>
+        <v>1.3725400000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>1360.180000</v>
+        <v>1360.18</v>
       </c>
       <c r="AH15" s="1">
-        <v>-179.424000</v>
+        <v>-179.42400000000001</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>4951.722888</v>
+        <v>4951.7228880000002</v>
       </c>
       <c r="AK15" s="1">
-        <v>1.375479</v>
+        <v>1.3754789999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>1380.810000</v>
+        <v>1380.81</v>
       </c>
       <c r="AM15" s="1">
-        <v>-209.641000</v>
+        <v>-209.64099999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>4962.549530</v>
+        <v>4962.5495300000002</v>
       </c>
       <c r="AP15" s="1">
-        <v>1.378486</v>
+        <v>1.3784860000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1402.400000</v>
+        <v>1402.4</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.829000</v>
+        <v>-253.82900000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>4973.977850</v>
+        <v>4973.9778500000002</v>
       </c>
       <c r="AU15" s="1">
         <v>1.381661</v>
       </c>
       <c r="AV15" s="1">
-        <v>1426.820000</v>
+        <v>1426.82</v>
       </c>
       <c r="AW15" s="1">
-        <v>-314.305000</v>
+        <v>-314.30500000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>4984.993500</v>
+        <v>4984.9934999999996</v>
       </c>
       <c r="AZ15" s="1">
-        <v>1.384720</v>
+        <v>1.38472</v>
       </c>
       <c r="BA15" s="1">
-        <v>1446.090000</v>
+        <v>1446.09</v>
       </c>
       <c r="BB15" s="1">
-        <v>-366.872000</v>
+        <v>-366.87200000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>4995.626275</v>
+        <v>4995.6262749999996</v>
       </c>
       <c r="BE15" s="1">
-        <v>1.387674</v>
+        <v>1.3876740000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1530.390000</v>
+        <v>1530.39</v>
       </c>
       <c r="BG15" s="1">
-        <v>-618.152000</v>
+        <v>-618.15200000000004</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>5006.579391</v>
+        <v>5006.5793910000002</v>
       </c>
       <c r="BJ15" s="1">
-        <v>1.390716</v>
+        <v>1.3907160000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1682.780000</v>
+        <v>1682.78</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1070.340000</v>
+        <v>-1070.3399999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>5017.676416</v>
+        <v>5017.6764160000002</v>
       </c>
       <c r="BO15" s="1">
         <v>1.393799</v>
       </c>
       <c r="BP15" s="1">
-        <v>1974.890000</v>
+        <v>1974.89</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1857.610000</v>
+        <v>-1857.61</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>5028.281844</v>
+        <v>5028.2818440000001</v>
       </c>
       <c r="BT15" s="1">
-        <v>1.396745</v>
+        <v>1.3967449999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>2360.710000</v>
+        <v>2360.71</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2772.340000</v>
+        <v>-2772.34</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>5039.045029</v>
+        <v>5039.0450289999999</v>
       </c>
       <c r="BY15" s="1">
         <v>1.399735</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2848.580000</v>
+        <v>2848.58</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3769.810000</v>
+        <v>-3769.81</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>5051.288774</v>
+        <v>5051.2887739999996</v>
       </c>
       <c r="CD15" s="1">
-        <v>1.403136</v>
+        <v>1.4031359999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>4279.620000</v>
+        <v>4279.62</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6188.760000</v>
+        <v>-6188.76</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>4878.694394</v>
+        <v>4878.6943940000001</v>
       </c>
       <c r="B16" s="1">
-        <v>1.355193</v>
+        <v>1.3551930000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>1244.620000</v>
+        <v>1244.6199999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>-309.634000</v>
+        <v>-309.63400000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>4888.768139</v>
+        <v>4888.7681389999998</v>
       </c>
       <c r="G16" s="1">
-        <v>1.357991</v>
+        <v>1.3579909999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>1270.130000</v>
+        <v>1270.1300000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-266.742000</v>
+        <v>-266.74200000000002</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>4899.240200</v>
+        <v>4899.2402000000002</v>
       </c>
       <c r="L16" s="1">
-        <v>1.360900</v>
+        <v>1.3609</v>
       </c>
       <c r="M16" s="1">
-        <v>1305.590000</v>
+        <v>1305.5899999999999</v>
       </c>
       <c r="N16" s="1">
-        <v>-203.825000</v>
+        <v>-203.82499999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>4909.797024</v>
+        <v>4909.7970240000004</v>
       </c>
       <c r="Q16" s="1">
-        <v>1.363833</v>
+        <v>1.3638330000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>1317.270000</v>
+        <v>1317.27</v>
       </c>
       <c r="S16" s="1">
-        <v>-185.328000</v>
+        <v>-185.328</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>4920.538385</v>
+        <v>4920.5383849999998</v>
       </c>
       <c r="V16" s="1">
         <v>1.366816</v>
       </c>
       <c r="W16" s="1">
-        <v>1330.180000</v>
+        <v>1330.18</v>
       </c>
       <c r="X16" s="1">
-        <v>-171.570000</v>
+        <v>-171.57</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>4931.039683</v>
       </c>
       <c r="AA16" s="1">
-        <v>1.369733</v>
+        <v>1.3697330000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>1347.360000</v>
+        <v>1347.36</v>
       </c>
       <c r="AC16" s="1">
-        <v>-169.447000</v>
+        <v>-169.447</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>4941.529109</v>
+        <v>4941.5291090000001</v>
       </c>
       <c r="AF16" s="1">
         <v>1.372647</v>
       </c>
       <c r="AG16" s="1">
-        <v>1360.200000</v>
+        <v>1360.2</v>
       </c>
       <c r="AH16" s="1">
-        <v>-179.488000</v>
+        <v>-179.488</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>4952.072537</v>
       </c>
       <c r="AK16" s="1">
-        <v>1.375576</v>
+        <v>1.3755759999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>1380.830000</v>
+        <v>1380.83</v>
       </c>
       <c r="AM16" s="1">
-        <v>-209.620000</v>
+        <v>-209.62</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>4962.928971</v>
+        <v>4962.9289710000003</v>
       </c>
       <c r="AP16" s="1">
-        <v>1.378591</v>
+        <v>1.3785909999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1402.390000</v>
+        <v>1402.39</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.863000</v>
+        <v>-253.863</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>4974.341914</v>
+        <v>4974.3419139999996</v>
       </c>
       <c r="AU16" s="1">
-        <v>1.381762</v>
+        <v>1.3817619999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>1426.830000</v>
+        <v>1426.83</v>
       </c>
       <c r="AW16" s="1">
-        <v>-314.329000</v>
+        <v>-314.32900000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>4985.410141</v>
+        <v>4985.4101410000003</v>
       </c>
       <c r="AZ16" s="1">
         <v>1.384836</v>
       </c>
       <c r="BA16" s="1">
-        <v>1446.090000</v>
+        <v>1446.09</v>
       </c>
       <c r="BB16" s="1">
-        <v>-366.909000</v>
+        <v>-366.90899999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>4996.064702</v>
+        <v>4996.0647019999997</v>
       </c>
       <c r="BE16" s="1">
         <v>1.387796</v>
       </c>
       <c r="BF16" s="1">
-        <v>1530.410000</v>
+        <v>1530.41</v>
       </c>
       <c r="BG16" s="1">
-        <v>-618.093000</v>
+        <v>-618.09299999999996</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>5006.905506</v>
+        <v>5006.9055060000001</v>
       </c>
       <c r="BJ16" s="1">
-        <v>1.390807</v>
+        <v>1.3908069999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1682.790000</v>
+        <v>1682.79</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1070.290000</v>
+        <v>-1070.29</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>5018.101952</v>
       </c>
       <c r="BO16" s="1">
-        <v>1.393917</v>
+        <v>1.3939170000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1974.690000</v>
+        <v>1974.69</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1857.640000</v>
+        <v>-1857.64</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>5028.693556</v>
+        <v>5028.6935560000002</v>
       </c>
       <c r="BT16" s="1">
-        <v>1.396859</v>
+        <v>1.3968590000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>2360.470000</v>
+        <v>2360.4699999999998</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2772.640000</v>
+        <v>-2772.64</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>5039.459716</v>
+        <v>5039.4597160000003</v>
       </c>
       <c r="BY16" s="1">
-        <v>1.399850</v>
+        <v>1.39985</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2848.410000</v>
+        <v>2848.41</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3770.360000</v>
+        <v>-3770.36</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>5051.829450</v>
+        <v>5051.8294500000002</v>
       </c>
       <c r="CD16" s="1">
         <v>1.403286</v>
       </c>
       <c r="CE16" s="1">
-        <v>4293.120000</v>
+        <v>4293.12</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6198.610000</v>
+        <v>-6198.61</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>4879.040104</v>
+        <v>4879.0401039999997</v>
       </c>
       <c r="B17" s="1">
         <v>1.355289</v>
       </c>
       <c r="C17" s="1">
-        <v>1244.640000</v>
+        <v>1244.6400000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>-309.626000</v>
+        <v>-309.62599999999998</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>4889.111404</v>
+        <v>4889.1114040000002</v>
       </c>
       <c r="G17" s="1">
         <v>1.358087</v>
       </c>
       <c r="H17" s="1">
-        <v>1270.000000</v>
+        <v>1270</v>
       </c>
       <c r="I17" s="1">
-        <v>-266.937000</v>
+        <v>-266.93700000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>4899.889436</v>
+        <v>4899.8894360000004</v>
       </c>
       <c r="L17" s="1">
-        <v>1.361080</v>
+        <v>1.3610800000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>1305.610000</v>
+        <v>1305.6099999999999</v>
       </c>
       <c r="N17" s="1">
-        <v>-204.156000</v>
+        <v>-204.15600000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>4910.452239</v>
+        <v>4910.4522390000002</v>
       </c>
       <c r="Q17" s="1">
         <v>1.364015</v>
       </c>
       <c r="R17" s="1">
-        <v>1317.320000</v>
+        <v>1317.32</v>
       </c>
       <c r="S17" s="1">
-        <v>-185.384000</v>
+        <v>-185.38399999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>4920.924273</v>
+        <v>4920.9242729999996</v>
       </c>
       <c r="V17" s="1">
-        <v>1.366923</v>
+        <v>1.3669230000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>1330.120000</v>
+        <v>1330.12</v>
       </c>
       <c r="X17" s="1">
-        <v>-171.702000</v>
+        <v>-171.702</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>4931.386883</v>
+        <v>4931.3868830000001</v>
       </c>
       <c r="AA17" s="1">
-        <v>1.369830</v>
+        <v>1.3698300000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>1347.260000</v>
+        <v>1347.26</v>
       </c>
       <c r="AC17" s="1">
-        <v>-169.608000</v>
+        <v>-169.608</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>4941.871814</v>
+        <v>4941.8718140000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>1.372742</v>
+        <v>1.3727419999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>1360.240000</v>
+        <v>1360.24</v>
       </c>
       <c r="AH17" s="1">
-        <v>-179.448000</v>
+        <v>-179.44800000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>4952.421719</v>
+        <v>4952.4217189999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>1.375673</v>
+        <v>1.3756729999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>1380.800000</v>
+        <v>1380.8</v>
       </c>
       <c r="AM17" s="1">
-        <v>-209.589000</v>
+        <v>-209.589</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>4963.343626</v>
+        <v>4963.3436259999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>1.378707</v>
+        <v>1.3787069999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1402.390000</v>
+        <v>1402.39</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.848000</v>
+        <v>-253.84800000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>4974.762553</v>
+        <v>4974.7625529999996</v>
       </c>
       <c r="AU17" s="1">
-        <v>1.381878</v>
+        <v>1.3818779999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>1426.800000</v>
+        <v>1426.8</v>
       </c>
       <c r="AW17" s="1">
-        <v>-314.347000</v>
+        <v>-314.34699999999998</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>4985.711211</v>
+        <v>4985.7112109999998</v>
       </c>
       <c r="AZ17" s="1">
-        <v>1.384920</v>
+        <v>1.3849199999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1446.090000</v>
+        <v>1446.09</v>
       </c>
       <c r="BB17" s="1">
-        <v>-366.855000</v>
+        <v>-366.85500000000002</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>4996.349901</v>
+        <v>4996.3499009999996</v>
       </c>
       <c r="BE17" s="1">
         <v>1.387875</v>
       </c>
       <c r="BF17" s="1">
-        <v>1530.420000</v>
+        <v>1530.42</v>
       </c>
       <c r="BG17" s="1">
-        <v>-618.114000</v>
+        <v>-618.11400000000003</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>5007.289664</v>
+        <v>5007.2896639999999</v>
       </c>
       <c r="BJ17" s="1">
         <v>1.390914</v>
       </c>
       <c r="BK17" s="1">
-        <v>1682.880000</v>
+        <v>1682.88</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1070.210000</v>
+        <v>-1070.21</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>5018.495810</v>
+        <v>5018.4958100000003</v>
       </c>
       <c r="BO17" s="1">
-        <v>1.394027</v>
+        <v>1.3940269999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1974.830000</v>
+        <v>1974.83</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1857.640000</v>
+        <v>-1857.64</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>5029.109171</v>
+        <v>5029.1091710000001</v>
       </c>
       <c r="BT17" s="1">
-        <v>1.396975</v>
+        <v>1.3969750000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>2360.520000</v>
+        <v>2360.52</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2771.860000</v>
+        <v>-2771.86</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>5039.914515</v>
+        <v>5039.9145150000004</v>
       </c>
       <c r="BY17" s="1">
-        <v>1.399976</v>
+        <v>1.3999760000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2848.310000</v>
+        <v>2848.31</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3769.230000</v>
+        <v>-3769.23</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>5052.369092</v>
+        <v>5052.3690919999999</v>
       </c>
       <c r="CD17" s="1">
-        <v>1.403436</v>
+        <v>1.4034359999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>4288.740000</v>
+        <v>4288.74</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6176.500000</v>
+        <v>-6176.5</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>4879.381847</v>
+        <v>4879.3818469999997</v>
       </c>
       <c r="B18" s="1">
-        <v>1.355384</v>
+        <v>1.3553839999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1244.460000</v>
+        <v>1244.46</v>
       </c>
       <c r="D18" s="1">
-        <v>-309.350000</v>
+        <v>-309.35000000000002</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>4889.763642</v>
+        <v>4889.7636419999999</v>
       </c>
       <c r="G18" s="1">
         <v>1.358268</v>
       </c>
       <c r="H18" s="1">
-        <v>1270.070000</v>
+        <v>1270.07</v>
       </c>
       <c r="I18" s="1">
-        <v>-266.628000</v>
+        <v>-266.62799999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>4900.278796</v>
+        <v>4900.2787959999996</v>
       </c>
       <c r="L18" s="1">
         <v>1.361189</v>
       </c>
       <c r="M18" s="1">
-        <v>1305.700000</v>
+        <v>1305.7</v>
       </c>
       <c r="N18" s="1">
-        <v>-203.643000</v>
+        <v>-203.643</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>4910.842590</v>
+        <v>4910.8425900000002</v>
       </c>
       <c r="Q18" s="1">
         <v>1.364123</v>
       </c>
       <c r="R18" s="1">
-        <v>1317.250000</v>
+        <v>1317.25</v>
       </c>
       <c r="S18" s="1">
-        <v>-185.421000</v>
+        <v>-185.42099999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>4921.268000</v>
+        <v>4921.268</v>
       </c>
       <c r="V18" s="1">
         <v>1.367019</v>
       </c>
       <c r="W18" s="1">
-        <v>1330.210000</v>
+        <v>1330.21</v>
       </c>
       <c r="X18" s="1">
-        <v>-171.648000</v>
+        <v>-171.648</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>4931.739577</v>
+        <v>4931.7395770000003</v>
       </c>
       <c r="AA18" s="1">
         <v>1.369928</v>
       </c>
       <c r="AB18" s="1">
-        <v>1347.210000</v>
+        <v>1347.21</v>
       </c>
       <c r="AC18" s="1">
-        <v>-169.703000</v>
+        <v>-169.703</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>4942.220037</v>
       </c>
       <c r="AF18" s="1">
-        <v>1.372839</v>
+        <v>1.3728389999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>1360.240000</v>
+        <v>1360.24</v>
       </c>
       <c r="AH18" s="1">
-        <v>-179.455000</v>
+        <v>-179.45500000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>4952.834887</v>
       </c>
       <c r="AK18" s="1">
-        <v>1.375787</v>
+        <v>1.3757870000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>1380.790000</v>
+        <v>1380.79</v>
       </c>
       <c r="AM18" s="1">
-        <v>-209.606000</v>
+        <v>-209.60599999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>4964.008760</v>
+        <v>4964.0087599999997</v>
       </c>
       <c r="AP18" s="1">
-        <v>1.378891</v>
+        <v>1.3788910000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1402.380000</v>
+        <v>1402.38</v>
       </c>
       <c r="AR18" s="1">
-        <v>-253.867000</v>
+        <v>-253.86699999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>4975.071033</v>
+        <v>4975.0710330000002</v>
       </c>
       <c r="AU18" s="1">
         <v>1.381964</v>
       </c>
       <c r="AV18" s="1">
-        <v>1426.800000</v>
+        <v>1426.8</v>
       </c>
       <c r="AW18" s="1">
-        <v>-314.327000</v>
+        <v>-314.327</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>4986.070848</v>
+        <v>4986.0708480000003</v>
       </c>
       <c r="AZ18" s="1">
-        <v>1.385020</v>
+        <v>1.3850199999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1446.080000</v>
+        <v>1446.08</v>
       </c>
       <c r="BB18" s="1">
-        <v>-366.876000</v>
+        <v>-366.87599999999998</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>4996.708508</v>
+        <v>4996.7085079999997</v>
       </c>
       <c r="BE18" s="1">
         <v>1.387975</v>
       </c>
       <c r="BF18" s="1">
-        <v>1530.430000</v>
+        <v>1530.43</v>
       </c>
       <c r="BG18" s="1">
-        <v>-618.061000</v>
+        <v>-618.06100000000004</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>5007.678030</v>
+        <v>5007.67803</v>
       </c>
       <c r="BJ18" s="1">
         <v>1.391022</v>
       </c>
       <c r="BK18" s="1">
-        <v>1682.810000</v>
+        <v>1682.81</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1070.210000</v>
+        <v>-1070.21</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>5018.914400</v>
+        <v>5018.9143999999997</v>
       </c>
       <c r="BO18" s="1">
-        <v>1.394143</v>
+        <v>1.3941429999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1974.770000</v>
+        <v>1974.77</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1857.610000</v>
+        <v>-1857.61</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>5029.536721</v>
+        <v>5029.5367210000004</v>
       </c>
       <c r="BT18" s="1">
-        <v>1.397094</v>
+        <v>1.3970940000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>2360.250000</v>
+        <v>2360.25</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2771.690000</v>
+        <v>-2771.69</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>5040.363395</v>
+        <v>5040.3633950000003</v>
       </c>
       <c r="BY18" s="1">
         <v>1.400101</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2848.010000</v>
+        <v>2848.01</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3769.030000</v>
+        <v>-3769.03</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>5052.910194</v>
@@ -4833,120 +5249,120 @@
         <v>1.403586</v>
       </c>
       <c r="CE18" s="1">
-        <v>4279.470000</v>
+        <v>4279.47</v>
       </c>
       <c r="CF18" s="1">
-        <v>-6197.470000</v>
+        <v>-6197.47</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>4879.820807</v>
+        <v>4879.8208070000001</v>
       </c>
       <c r="B19" s="1">
-        <v>1.355506</v>
+        <v>1.3555060000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>1244.930000</v>
+        <v>1244.93</v>
       </c>
       <c r="D19" s="1">
-        <v>-309.497000</v>
+        <v>-309.49700000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>4890.147514</v>
+        <v>4890.1475140000002</v>
       </c>
       <c r="G19" s="1">
         <v>1.358374</v>
       </c>
       <c r="H19" s="1">
-        <v>1270.220000</v>
+        <v>1270.22</v>
       </c>
       <c r="I19" s="1">
-        <v>-266.399000</v>
+        <v>-266.399</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>4900.622523</v>
       </c>
       <c r="L19" s="1">
-        <v>1.361284</v>
+        <v>1.3612839999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>1305.630000</v>
+        <v>1305.6300000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-203.534000</v>
+        <v>-203.53399999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>4911.191278</v>
+        <v>4911.1912780000002</v>
       </c>
       <c r="Q19" s="1">
-        <v>1.364220</v>
+        <v>1.36422</v>
       </c>
       <c r="R19" s="1">
-        <v>1317.190000</v>
+        <v>1317.19</v>
       </c>
       <c r="S19" s="1">
-        <v>-185.414000</v>
+        <v>-185.41399999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>4921.617680</v>
+        <v>4921.6176800000003</v>
       </c>
       <c r="V19" s="1">
         <v>1.367116</v>
       </c>
       <c r="W19" s="1">
-        <v>1330.250000</v>
+        <v>1330.25</v>
       </c>
       <c r="X19" s="1">
-        <v>-171.749000</v>
+        <v>-171.749</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>4932.163122</v>
+        <v>4932.1631219999999</v>
       </c>
       <c r="AA19" s="1">
         <v>1.370045</v>
       </c>
       <c r="AB19" s="1">
-        <v>1347.400000</v>
+        <v>1347.4</v>
       </c>
       <c r="AC19" s="1">
-        <v>-169.590000</v>
+        <v>-169.59</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>4942.645572</v>
+        <v>4942.6455720000004</v>
       </c>
       <c r="AF19" s="1">
         <v>1.372957</v>
       </c>
       <c r="AG19" s="1">
-        <v>1360.290000</v>
+        <v>1360.29</v>
       </c>
       <c r="AH19" s="1">
-        <v>-179.523000</v>
+        <v>-179.523</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>4953.127031</v>
@@ -4955,28 +5371,28 @@
         <v>1.375869</v>
       </c>
       <c r="AL19" s="1">
-        <v>1380.790000</v>
+        <v>1380.79</v>
       </c>
       <c r="AM19" s="1">
-        <v>-209.621000</v>
+        <v>-209.62100000000001</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>4964.370878</v>
+        <v>4964.3708779999997</v>
       </c>
       <c r="AP19" s="1">
         <v>1.378992</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1402.360000</v>
+        <v>1402.36</v>
       </c>
       <c r="AR19" s="1">
-        <v>-253.871000</v>
+        <v>-253.87100000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>4975.437578</v>
@@ -4985,512 +5401,512 @@
         <v>1.382066</v>
       </c>
       <c r="AV19" s="1">
-        <v>1426.790000</v>
+        <v>1426.79</v>
       </c>
       <c r="AW19" s="1">
-        <v>-314.284000</v>
+        <v>-314.28399999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>4986.429914</v>
+        <v>4986.4299140000003</v>
       </c>
       <c r="AZ19" s="1">
         <v>1.385119</v>
       </c>
       <c r="BA19" s="1">
-        <v>1446.080000</v>
+        <v>1446.08</v>
       </c>
       <c r="BB19" s="1">
-        <v>-366.869000</v>
+        <v>-366.86900000000003</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>4997.428237</v>
+        <v>4997.4282370000001</v>
       </c>
       <c r="BE19" s="1">
-        <v>1.388175</v>
+        <v>1.3881749999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1530.400000</v>
+        <v>1530.4</v>
       </c>
       <c r="BG19" s="1">
-        <v>-618.119000</v>
+        <v>-618.11900000000003</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>5008.430002</v>
+        <v>5008.4300020000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>1.391231</v>
+        <v>1.3912310000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1682.800000</v>
+        <v>1682.8</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1070.230000</v>
+        <v>-1070.23</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>5019.314697</v>
+        <v>5019.3146969999998</v>
       </c>
       <c r="BO19" s="1">
-        <v>1.394254</v>
+        <v>1.3942540000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1974.730000</v>
+        <v>1974.73</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1857.670000</v>
+        <v>-1857.67</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>5029.964769</v>
+        <v>5029.9647690000002</v>
       </c>
       <c r="BT19" s="1">
-        <v>1.397212</v>
+        <v>1.3972119999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>2359.720000</v>
+        <v>2359.7199999999998</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2771.420000</v>
+        <v>-2771.42</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>5040.819715</v>
+        <v>5040.8197149999996</v>
       </c>
       <c r="BY19" s="1">
         <v>1.400228</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2847.590000</v>
+        <v>2847.59</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3770.010000</v>
+        <v>-3770.01</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>5053.751419</v>
+        <v>5053.7514190000002</v>
       </c>
       <c r="CD19" s="1">
-        <v>1.403820</v>
+        <v>1.4038200000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>4283.610000</v>
+        <v>4283.6099999999997</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6177.480000</v>
+        <v>-6177.48</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>4880.083191</v>
+        <v>4880.0831909999997</v>
       </c>
       <c r="B20" s="1">
-        <v>1.355579</v>
+        <v>1.3555790000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>1244.030000</v>
+        <v>1244.03</v>
       </c>
       <c r="D20" s="1">
-        <v>-308.958000</v>
+        <v>-308.95800000000003</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>4890.491241</v>
+        <v>4890.4912409999997</v>
       </c>
       <c r="G20" s="1">
-        <v>1.358470</v>
+        <v>1.3584700000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>1269.720000</v>
+        <v>1269.72</v>
       </c>
       <c r="I20" s="1">
-        <v>-266.715000</v>
+        <v>-266.71499999999997</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>4900.969723</v>
+        <v>4900.9697230000002</v>
       </c>
       <c r="L20" s="1">
-        <v>1.361380</v>
+        <v>1.36138</v>
       </c>
       <c r="M20" s="1">
-        <v>1305.580000</v>
+        <v>1305.58</v>
       </c>
       <c r="N20" s="1">
-        <v>-203.551000</v>
+        <v>-203.55099999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>4911.539965</v>
+        <v>4911.5399649999999</v>
       </c>
       <c r="Q20" s="1">
         <v>1.364317</v>
       </c>
       <c r="R20" s="1">
-        <v>1317.190000</v>
+        <v>1317.19</v>
       </c>
       <c r="S20" s="1">
-        <v>-185.330000</v>
+        <v>-185.33</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>4922.038288</v>
+        <v>4922.0382879999997</v>
       </c>
       <c r="V20" s="1">
-        <v>1.367233</v>
+        <v>1.3672329999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>1330.360000</v>
+        <v>1330.36</v>
       </c>
       <c r="X20" s="1">
-        <v>-171.668000</v>
+        <v>-171.66800000000001</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>4932.444385</v>
+        <v>4932.4443849999998</v>
       </c>
       <c r="AA20" s="1">
         <v>1.370123</v>
       </c>
       <c r="AB20" s="1">
-        <v>1347.320000</v>
+        <v>1347.32</v>
       </c>
       <c r="AC20" s="1">
-        <v>-169.544000</v>
+        <v>-169.54400000000001</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>4942.923861</v>
+        <v>4942.9238610000002</v>
       </c>
       <c r="AF20" s="1">
-        <v>1.373034</v>
+        <v>1.3730340000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>1360.200000</v>
+        <v>1360.2</v>
       </c>
       <c r="AH20" s="1">
-        <v>-179.382000</v>
+        <v>-179.38200000000001</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>4953.476986</v>
+        <v>4953.4769859999997</v>
       </c>
       <c r="AK20" s="1">
         <v>1.375966</v>
       </c>
       <c r="AL20" s="1">
-        <v>1380.820000</v>
+        <v>1380.82</v>
       </c>
       <c r="AM20" s="1">
-        <v>-209.622000</v>
+        <v>-209.62200000000001</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>4964.731926</v>
+        <v>4964.7319260000004</v>
       </c>
       <c r="AP20" s="1">
         <v>1.379092</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1402.370000</v>
+        <v>1402.37</v>
       </c>
       <c r="AR20" s="1">
-        <v>-253.862000</v>
+        <v>-253.86199999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>4975.802136</v>
+        <v>4975.8021360000002</v>
       </c>
       <c r="AU20" s="1">
-        <v>1.382167</v>
+        <v>1.3821669999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>1426.860000</v>
+        <v>1426.86</v>
       </c>
       <c r="AW20" s="1">
-        <v>-314.246000</v>
+        <v>-314.24599999999998</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>4987.148617</v>
+        <v>4987.1486169999998</v>
       </c>
       <c r="AZ20" s="1">
         <v>1.385319</v>
       </c>
       <c r="BA20" s="1">
-        <v>1446.070000</v>
+        <v>1446.07</v>
       </c>
       <c r="BB20" s="1">
-        <v>-366.863000</v>
+        <v>-366.863</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>4997.787836</v>
+        <v>4997.7878360000004</v>
       </c>
       <c r="BE20" s="1">
         <v>1.388274</v>
       </c>
       <c r="BF20" s="1">
-        <v>1530.400000</v>
+        <v>1530.4</v>
       </c>
       <c r="BG20" s="1">
-        <v>-618.042000</v>
+        <v>-618.04200000000003</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>5008.829741</v>
+        <v>5008.8297409999996</v>
       </c>
       <c r="BJ20" s="1">
-        <v>1.391342</v>
+        <v>1.3913420000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1682.780000</v>
+        <v>1682.78</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1070.230000</v>
+        <v>-1070.23</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>5019.737262</v>
+        <v>5019.7372619999996</v>
       </c>
       <c r="BO20" s="1">
         <v>1.394371</v>
       </c>
       <c r="BP20" s="1">
-        <v>1974.620000</v>
+        <v>1974.62</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1857.520000</v>
+        <v>-1857.52</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>5030.391860</v>
+        <v>5030.3918599999997</v>
       </c>
       <c r="BT20" s="1">
-        <v>1.397331</v>
+        <v>1.3973310000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>2359.750000</v>
+        <v>2359.75</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2771.270000</v>
+        <v>-2771.27</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>5041.570657</v>
+        <v>5041.5706570000002</v>
       </c>
       <c r="BY20" s="1">
         <v>1.400436</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2847.700000</v>
+        <v>2847.7</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3769.360000</v>
+        <v>-3769.36</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>5053.979073</v>
+        <v>5053.9790730000004</v>
       </c>
       <c r="CD20" s="1">
         <v>1.403883</v>
       </c>
       <c r="CE20" s="1">
-        <v>4283.980000</v>
+        <v>4283.9799999999996</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6175.780000</v>
+        <v>-6175.78</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>4880.424439</v>
+        <v>4880.4244390000003</v>
       </c>
       <c r="B21" s="1">
-        <v>1.355673</v>
+        <v>1.3556729999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>1244.690000</v>
+        <v>1244.69</v>
       </c>
       <c r="D21" s="1">
-        <v>-308.986000</v>
+        <v>-308.98599999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>4890.834505</v>
+        <v>4890.8345049999998</v>
       </c>
       <c r="G21" s="1">
         <v>1.358565</v>
       </c>
       <c r="H21" s="1">
-        <v>1270.380000</v>
+        <v>1270.3800000000001</v>
       </c>
       <c r="I21" s="1">
-        <v>-266.697000</v>
+        <v>-266.697</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>4901.388844</v>
+        <v>4901.3888440000001</v>
       </c>
       <c r="L21" s="1">
         <v>1.361497</v>
       </c>
       <c r="M21" s="1">
-        <v>1305.260000</v>
+        <v>1305.26</v>
       </c>
       <c r="N21" s="1">
-        <v>-203.866000</v>
+        <v>-203.86600000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>4911.969005</v>
+        <v>4911.9690049999999</v>
       </c>
       <c r="Q21" s="1">
         <v>1.364436</v>
       </c>
       <c r="R21" s="1">
-        <v>1317.290000</v>
+        <v>1317.29</v>
       </c>
       <c r="S21" s="1">
-        <v>-185.304000</v>
+        <v>-185.304</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>4922.321038</v>
       </c>
       <c r="V21" s="1">
-        <v>1.367311</v>
+        <v>1.3673109999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>1330.230000</v>
+        <v>1330.23</v>
       </c>
       <c r="X21" s="1">
-        <v>-171.709000</v>
+        <v>-171.709</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>4932.794528</v>
+        <v>4932.7945280000004</v>
       </c>
       <c r="AA21" s="1">
-        <v>1.370221</v>
+        <v>1.3702209999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>1347.480000</v>
+        <v>1347.48</v>
       </c>
       <c r="AC21" s="1">
-        <v>-169.540000</v>
+        <v>-169.54</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>4943.266068</v>
+        <v>4943.2660679999999</v>
       </c>
       <c r="AF21" s="1">
         <v>1.373129</v>
       </c>
       <c r="AG21" s="1">
-        <v>1360.180000</v>
+        <v>1360.18</v>
       </c>
       <c r="AH21" s="1">
-        <v>-179.440000</v>
+        <v>-179.44</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>4953.825397</v>
+        <v>4953.8253969999996</v>
       </c>
       <c r="AK21" s="1">
         <v>1.376063</v>
       </c>
       <c r="AL21" s="1">
-        <v>1380.840000</v>
+        <v>1380.84</v>
       </c>
       <c r="AM21" s="1">
-        <v>-209.580000</v>
+        <v>-209.58</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>4965.450171</v>
+        <v>4965.4501710000004</v>
       </c>
       <c r="AP21" s="1">
         <v>1.379292</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1402.390000</v>
+        <v>1402.39</v>
       </c>
       <c r="AR21" s="1">
-        <v>-253.789000</v>
+        <v>-253.78899999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>4976.529767</v>
@@ -5499,649 +5915,649 @@
         <v>1.382369</v>
       </c>
       <c r="AV21" s="1">
-        <v>1426.840000</v>
+        <v>1426.84</v>
       </c>
       <c r="AW21" s="1">
-        <v>-314.236000</v>
+        <v>-314.23599999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>4987.508218</v>
+        <v>4987.5082179999999</v>
       </c>
       <c r="AZ21" s="1">
         <v>1.385419</v>
       </c>
       <c r="BA21" s="1">
-        <v>1446.080000</v>
+        <v>1446.08</v>
       </c>
       <c r="BB21" s="1">
-        <v>-366.883000</v>
+        <v>-366.88299999999998</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>4998.149424</v>
+        <v>4998.1494240000002</v>
       </c>
       <c r="BE21" s="1">
-        <v>1.388375</v>
+        <v>1.3883749999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1530.430000</v>
+        <v>1530.43</v>
       </c>
       <c r="BG21" s="1">
-        <v>-618.080000</v>
+        <v>-618.08000000000004</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>5009.206732</v>
+        <v>5009.2067319999996</v>
       </c>
       <c r="BJ21" s="1">
         <v>1.391446</v>
       </c>
       <c r="BK21" s="1">
-        <v>1682.830000</v>
+        <v>1682.83</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1070.240000</v>
+        <v>-1070.24</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>5020.442078</v>
       </c>
       <c r="BO21" s="1">
-        <v>1.394567</v>
+        <v>1.3945669999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1974.740000</v>
+        <v>1974.74</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1857.440000</v>
+        <v>-1857.44</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>5031.049525</v>
+        <v>5031.0495250000004</v>
       </c>
       <c r="BT21" s="1">
-        <v>1.397514</v>
+        <v>1.3975139999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>2359.560000</v>
+        <v>2359.56</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2770.980000</v>
+        <v>-2770.98</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>5041.702410</v>
+        <v>5041.7024099999999</v>
       </c>
       <c r="BY21" s="1">
-        <v>1.400473</v>
+        <v>1.4004730000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2848.160000</v>
+        <v>2848.16</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3769.400000</v>
+        <v>-3769.4</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>5054.506352</v>
+        <v>5054.5063520000003</v>
       </c>
       <c r="CD21" s="1">
-        <v>1.404030</v>
+        <v>1.4040299999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>4275.410000</v>
+        <v>4275.41</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6190.900000</v>
+        <v>-6190.9</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>4880.847557</v>
+        <v>4880.8475570000001</v>
       </c>
       <c r="B22" s="1">
         <v>1.355791</v>
       </c>
       <c r="C22" s="1">
-        <v>1244.760000</v>
+        <v>1244.76</v>
       </c>
       <c r="D22" s="1">
-        <v>-309.302000</v>
+        <v>-309.30200000000002</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>4891.251640</v>
+        <v>4891.2516400000004</v>
       </c>
       <c r="G22" s="1">
         <v>1.358681</v>
       </c>
       <c r="H22" s="1">
-        <v>1270.050000</v>
+        <v>1270.05</v>
       </c>
       <c r="I22" s="1">
-        <v>-267.029000</v>
+        <v>-267.029</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>4901.679530</v>
+        <v>4901.6795300000003</v>
       </c>
       <c r="L22" s="1">
         <v>1.361578</v>
       </c>
       <c r="M22" s="1">
-        <v>1305.440000</v>
+        <v>1305.44</v>
       </c>
       <c r="N22" s="1">
-        <v>-203.904000</v>
+        <v>-203.904</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>4912.250236</v>
+        <v>4912.2502359999999</v>
       </c>
       <c r="Q22" s="1">
         <v>1.364514</v>
       </c>
       <c r="R22" s="1">
-        <v>1317.250000</v>
+        <v>1317.25</v>
       </c>
       <c r="S22" s="1">
-        <v>-185.350000</v>
+        <v>-185.35</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>4922.663743</v>
+        <v>4922.6637430000001</v>
       </c>
       <c r="V22" s="1">
         <v>1.367407</v>
       </c>
       <c r="W22" s="1">
-        <v>1330.260000</v>
+        <v>1330.26</v>
       </c>
       <c r="X22" s="1">
-        <v>-171.687000</v>
+        <v>-171.68700000000001</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>4933.145434</v>
       </c>
       <c r="AA22" s="1">
-        <v>1.370318</v>
+        <v>1.3703179999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>1347.450000</v>
+        <v>1347.45</v>
       </c>
       <c r="AC22" s="1">
-        <v>-169.555000</v>
+        <v>-169.55500000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>4943.610307</v>
+        <v>4943.6103069999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>1.373225</v>
+        <v>1.3732249999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>1360.270000</v>
+        <v>1360.27</v>
       </c>
       <c r="AH22" s="1">
-        <v>-179.414000</v>
+        <v>-179.41399999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>4954.520324</v>
+        <v>4954.5203240000001</v>
       </c>
       <c r="AK22" s="1">
-        <v>1.376256</v>
+        <v>1.3762559999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>1380.790000</v>
+        <v>1380.79</v>
       </c>
       <c r="AM22" s="1">
-        <v>-209.607000</v>
+        <v>-209.607</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>4965.812214</v>
+        <v>4965.8122139999996</v>
       </c>
       <c r="AP22" s="1">
         <v>1.379392</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1402.390000</v>
+        <v>1402.39</v>
       </c>
       <c r="AR22" s="1">
-        <v>-253.829000</v>
+        <v>-253.82900000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>4976.925078</v>
+        <v>4976.9250780000002</v>
       </c>
       <c r="AU22" s="1">
         <v>1.382479</v>
       </c>
       <c r="AV22" s="1">
-        <v>1426.860000</v>
+        <v>1426.86</v>
       </c>
       <c r="AW22" s="1">
-        <v>-314.251000</v>
+        <v>-314.25099999999998</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>4987.865832</v>
+        <v>4987.8658320000004</v>
       </c>
       <c r="AZ22" s="1">
         <v>1.385518</v>
       </c>
       <c r="BA22" s="1">
-        <v>1446.100000</v>
+        <v>1446.1</v>
       </c>
       <c r="BB22" s="1">
-        <v>-366.874000</v>
+        <v>-366.87400000000002</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>4998.818490</v>
+        <v>4998.8184899999997</v>
       </c>
       <c r="BE22" s="1">
-        <v>1.388561</v>
+        <v>1.3885609999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1530.440000</v>
+        <v>1530.44</v>
       </c>
       <c r="BG22" s="1">
-        <v>-618.068000</v>
+        <v>-618.06799999999998</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>5009.887249</v>
+        <v>5009.8872490000003</v>
       </c>
       <c r="BJ22" s="1">
         <v>1.391635</v>
       </c>
       <c r="BK22" s="1">
-        <v>1682.830000</v>
+        <v>1682.83</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1070.220000</v>
+        <v>-1070.22</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>5020.552685</v>
+        <v>5020.5526849999997</v>
       </c>
       <c r="BO22" s="1">
         <v>1.394598</v>
       </c>
       <c r="BP22" s="1">
-        <v>1974.750000</v>
+        <v>1974.75</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1857.550000</v>
+        <v>-1857.55</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>5031.233040</v>
+        <v>5031.2330400000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>1.397565</v>
+        <v>1.3975649999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>2359.310000</v>
+        <v>2359.31</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2770.470000</v>
+        <v>-2770.47</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>5042.128656</v>
+        <v>5042.1286559999999</v>
       </c>
       <c r="BY22" s="1">
-        <v>1.400591</v>
+        <v>1.4005909999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2848.140000</v>
+        <v>2848.14</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3768.630000</v>
+        <v>-3768.63</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>5055.024639</v>
+        <v>5055.0246390000002</v>
       </c>
       <c r="CD22" s="1">
         <v>1.404174</v>
       </c>
       <c r="CE22" s="1">
-        <v>4290.270000</v>
+        <v>4290.2700000000004</v>
       </c>
       <c r="CF22" s="1">
-        <v>-6198.150000</v>
+        <v>-6198.15</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>4881.124293</v>
+        <v>4881.1242929999999</v>
       </c>
       <c r="B23" s="1">
-        <v>1.355868</v>
+        <v>1.3558680000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>1244.700000</v>
+        <v>1244.7</v>
       </c>
       <c r="D23" s="1">
-        <v>-309.323000</v>
+        <v>-309.32299999999998</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>4891.531847</v>
+        <v>4891.5318470000002</v>
       </c>
       <c r="G23" s="1">
-        <v>1.358759</v>
+        <v>1.3587590000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>1270.140000</v>
+        <v>1270.1400000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-266.810000</v>
+        <v>-266.81</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>4902.027689</v>
+        <v>4902.0276889999996</v>
       </c>
       <c r="L23" s="1">
-        <v>1.361674</v>
+        <v>1.3616740000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>1305.690000</v>
+        <v>1305.69</v>
       </c>
       <c r="N23" s="1">
-        <v>-203.959000</v>
+        <v>-203.959</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>4912.599916</v>
+        <v>4912.5999160000001</v>
       </c>
       <c r="Q23" s="1">
         <v>1.364611</v>
       </c>
       <c r="R23" s="1">
-        <v>1317.270000</v>
+        <v>1317.27</v>
       </c>
       <c r="S23" s="1">
-        <v>-185.382000</v>
+        <v>-185.38200000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>4923.006974</v>
+        <v>4923.0069739999999</v>
       </c>
       <c r="V23" s="1">
         <v>1.367502</v>
       </c>
       <c r="W23" s="1">
-        <v>1330.260000</v>
+        <v>1330.26</v>
       </c>
       <c r="X23" s="1">
-        <v>-171.710000</v>
+        <v>-171.71</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>4933.842112</v>
+        <v>4933.8421120000003</v>
       </c>
       <c r="AA23" s="1">
         <v>1.370512</v>
       </c>
       <c r="AB23" s="1">
-        <v>1347.470000</v>
+        <v>1347.47</v>
       </c>
       <c r="AC23" s="1">
-        <v>-169.695000</v>
+        <v>-169.69499999999999</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>4944.301218</v>
+        <v>4944.3012179999996</v>
       </c>
       <c r="AF23" s="1">
-        <v>1.373417</v>
+        <v>1.3734170000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>1360.300000</v>
+        <v>1360.3</v>
       </c>
       <c r="AH23" s="1">
-        <v>-179.424000</v>
+        <v>-179.42400000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>4954.870964</v>
+        <v>4954.8709639999997</v>
       </c>
       <c r="AK23" s="1">
-        <v>1.376353</v>
+        <v>1.3763529999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>1380.800000</v>
+        <v>1380.8</v>
       </c>
       <c r="AM23" s="1">
-        <v>-209.583000</v>
+        <v>-209.583</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>4966.172805</v>
+        <v>4966.1728050000002</v>
       </c>
       <c r="AP23" s="1">
-        <v>1.379492</v>
+        <v>1.3794919999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1402.370000</v>
+        <v>1402.37</v>
       </c>
       <c r="AR23" s="1">
-        <v>-253.839000</v>
+        <v>-253.839</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>4977.287158</v>
+        <v>4977.2871580000001</v>
       </c>
       <c r="AU23" s="1">
-        <v>1.382580</v>
+        <v>1.3825799999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>1426.880000</v>
+        <v>1426.88</v>
       </c>
       <c r="AW23" s="1">
-        <v>-314.256000</v>
+        <v>-314.25599999999997</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>4988.532455</v>
+        <v>4988.5324549999996</v>
       </c>
       <c r="AZ23" s="1">
-        <v>1.385703</v>
+        <v>1.3857029999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1446.040000</v>
+        <v>1446.04</v>
       </c>
       <c r="BB23" s="1">
-        <v>-366.827000</v>
+        <v>-366.827</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>4999.264425</v>
+        <v>4999.2644250000003</v>
       </c>
       <c r="BE23" s="1">
-        <v>1.388685</v>
+        <v>1.3886849999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1530.370000</v>
+        <v>1530.37</v>
       </c>
       <c r="BG23" s="1">
-        <v>-618.056000</v>
+        <v>-618.05600000000004</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>5009.996827</v>
+        <v>5009.9968269999999</v>
       </c>
       <c r="BJ23" s="1">
-        <v>1.391666</v>
+        <v>1.3916660000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1682.780000</v>
+        <v>1682.78</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1070.200000</v>
+        <v>-1070.2</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>5020.977262</v>
+        <v>5020.9772620000003</v>
       </c>
       <c r="BO23" s="1">
-        <v>1.394716</v>
+        <v>1.3947160000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1974.710000</v>
+        <v>1974.71</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1857.490000</v>
+        <v>-1857.49</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>5031.664062</v>
+        <v>5031.6640619999998</v>
       </c>
       <c r="BT23" s="1">
-        <v>1.397684</v>
+        <v>1.3976839999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>2359.260000</v>
+        <v>2359.2600000000002</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2769.960000</v>
+        <v>-2769.96</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>5042.532896</v>
+        <v>5042.5328959999997</v>
       </c>
       <c r="BY23" s="1">
-        <v>1.400704</v>
+        <v>1.4007039999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2848.520000</v>
+        <v>2848.52</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3769.510000</v>
+        <v>-3769.51</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>5055.544942</v>
+        <v>5055.5449420000004</v>
       </c>
       <c r="CD23" s="1">
         <v>1.404318</v>
       </c>
       <c r="CE23" s="1">
-        <v>4296.810000</v>
+        <v>4296.8100000000004</v>
       </c>
       <c r="CF23" s="1">
-        <v>-6185.200000</v>
+        <v>-6185.2</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>4881.467558</v>
+        <v>4881.4675580000003</v>
       </c>
       <c r="B24" s="1">
         <v>1.355963</v>
       </c>
       <c r="C24" s="1">
-        <v>1244.540000</v>
+        <v>1244.54</v>
       </c>
       <c r="D24" s="1">
-        <v>-309.452000</v>
+        <v>-309.452</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>4891.876072</v>
@@ -6150,465 +6566,465 @@
         <v>1.358854</v>
       </c>
       <c r="H24" s="1">
-        <v>1269.700000</v>
+        <v>1269.7</v>
       </c>
       <c r="I24" s="1">
-        <v>-267.141000</v>
+        <v>-267.14100000000002</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>4902.372905</v>
+        <v>4902.3729050000002</v>
       </c>
       <c r="L24" s="1">
-        <v>1.361770</v>
+        <v>1.3617699999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>1305.480000</v>
+        <v>1305.48</v>
       </c>
       <c r="N24" s="1">
-        <v>-203.466000</v>
+        <v>-203.46600000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>4913.267568</v>
+        <v>4913.2675680000002</v>
       </c>
       <c r="Q24" s="1">
         <v>1.364797</v>
       </c>
       <c r="R24" s="1">
-        <v>1317.210000</v>
+        <v>1317.21</v>
       </c>
       <c r="S24" s="1">
-        <v>-185.404000</v>
+        <v>-185.404</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>4923.693464</v>
+        <v>4923.6934639999999</v>
       </c>
       <c r="V24" s="1">
         <v>1.367693</v>
       </c>
       <c r="W24" s="1">
-        <v>1330.110000</v>
+        <v>1330.11</v>
       </c>
       <c r="X24" s="1">
-        <v>-171.818000</v>
+        <v>-171.81800000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>4934.187327</v>
+        <v>4934.1873269999996</v>
       </c>
       <c r="AA24" s="1">
         <v>1.370608</v>
       </c>
       <c r="AB24" s="1">
-        <v>1347.340000</v>
+        <v>1347.34</v>
       </c>
       <c r="AC24" s="1">
-        <v>-169.535000</v>
+        <v>-169.535</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>4944.642999</v>
+        <v>4944.6429989999997</v>
       </c>
       <c r="AF24" s="1">
-        <v>1.373512</v>
+        <v>1.3735120000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>1360.250000</v>
+        <v>1360.25</v>
       </c>
       <c r="AH24" s="1">
-        <v>-179.457000</v>
+        <v>-179.45699999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>4955.218659</v>
+        <v>4955.2186590000001</v>
       </c>
       <c r="AK24" s="1">
-        <v>1.376450</v>
+        <v>1.37645</v>
       </c>
       <c r="AL24" s="1">
-        <v>1380.840000</v>
+        <v>1380.84</v>
       </c>
       <c r="AM24" s="1">
-        <v>-209.582000</v>
+        <v>-209.58199999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>4966.847364</v>
+        <v>4966.8473640000002</v>
       </c>
       <c r="AP24" s="1">
-        <v>1.379680</v>
+        <v>1.37968</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1402.340000</v>
+        <v>1402.34</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.823000</v>
+        <v>-253.82300000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>4977.960725</v>
+        <v>4977.9607249999999</v>
       </c>
       <c r="AU24" s="1">
-        <v>1.382767</v>
+        <v>1.3827670000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>1426.850000</v>
+        <v>1426.85</v>
       </c>
       <c r="AW24" s="1">
-        <v>-314.226000</v>
+        <v>-314.226</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>4988.975382</v>
+        <v>4988.9753819999996</v>
       </c>
       <c r="AZ24" s="1">
         <v>1.385826</v>
       </c>
       <c r="BA24" s="1">
-        <v>1446.100000</v>
+        <v>1446.1</v>
       </c>
       <c r="BB24" s="1">
-        <v>-366.892000</v>
+        <v>-366.892</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>4999.627464</v>
+        <v>4999.6274640000001</v>
       </c>
       <c r="BE24" s="1">
-        <v>1.388785</v>
+        <v>1.3887849999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1530.430000</v>
+        <v>1530.43</v>
       </c>
       <c r="BG24" s="1">
-        <v>-618.056000</v>
+        <v>-618.05600000000004</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>5010.358943</v>
+        <v>5010.3589430000002</v>
       </c>
       <c r="BJ24" s="1">
-        <v>1.391766</v>
+        <v>1.3917660000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1682.770000</v>
+        <v>1682.77</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1070.110000</v>
+        <v>-1070.1099999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>5021.372572</v>
+        <v>5021.3725720000002</v>
       </c>
       <c r="BO24" s="1">
-        <v>1.394826</v>
+        <v>1.3948259999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1974.750000</v>
+        <v>1974.75</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1857.380000</v>
+        <v>-1857.38</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>5032.091646</v>
+        <v>5032.0916459999999</v>
       </c>
       <c r="BT24" s="1">
-        <v>1.397803</v>
+        <v>1.3978029999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>2359.280000</v>
+        <v>2359.2800000000002</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2769.630000</v>
+        <v>-2769.63</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>5043.001616</v>
+        <v>5043.0016159999996</v>
       </c>
       <c r="BY24" s="1">
-        <v>1.400834</v>
+        <v>1.4008339999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2847.710000</v>
+        <v>2847.71</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3768.450000</v>
+        <v>-3768.45</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>5056.061774</v>
+        <v>5056.0617739999998</v>
       </c>
       <c r="CD24" s="1">
-        <v>1.404462</v>
+        <v>1.4044620000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>4296.490000</v>
+        <v>4296.49</v>
       </c>
       <c r="CF24" s="1">
-        <v>-6187.490000</v>
+        <v>-6187.49</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>4881.807813</v>
+        <v>4881.8078130000004</v>
       </c>
       <c r="B25" s="1">
         <v>1.356058</v>
       </c>
       <c r="C25" s="1">
-        <v>1244.550000</v>
+        <v>1244.55</v>
       </c>
       <c r="D25" s="1">
-        <v>-309.289000</v>
+        <v>-309.28899999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>4892.220294</v>
+        <v>4892.2202939999997</v>
       </c>
       <c r="G25" s="1">
-        <v>1.358950</v>
+        <v>1.3589500000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>1270.050000</v>
+        <v>1270.05</v>
       </c>
       <c r="I25" s="1">
-        <v>-266.838000</v>
+        <v>-266.83800000000002</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>4903.068334</v>
+        <v>4903.0683339999996</v>
       </c>
       <c r="L25" s="1">
         <v>1.361963</v>
       </c>
       <c r="M25" s="1">
-        <v>1305.510000</v>
+        <v>1305.51</v>
       </c>
       <c r="N25" s="1">
-        <v>-203.661000</v>
+        <v>-203.661</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>4913.642544</v>
+        <v>4913.6425440000003</v>
       </c>
       <c r="Q25" s="1">
-        <v>1.364901</v>
+        <v>1.3649009999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>1317.150000</v>
+        <v>1317.15</v>
       </c>
       <c r="S25" s="1">
-        <v>-185.358000</v>
+        <v>-185.358</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>4924.036705</v>
+        <v>4924.0367050000004</v>
       </c>
       <c r="V25" s="1">
         <v>1.367788</v>
       </c>
       <c r="W25" s="1">
-        <v>1330.240000</v>
+        <v>1330.24</v>
       </c>
       <c r="X25" s="1">
-        <v>-171.793000</v>
+        <v>-171.79300000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>4934.536479</v>
+        <v>4934.5364790000003</v>
       </c>
       <c r="AA25" s="1">
-        <v>1.370705</v>
+        <v>1.3707050000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>1347.450000</v>
+        <v>1347.45</v>
       </c>
       <c r="AC25" s="1">
-        <v>-169.522000</v>
+        <v>-169.52199999999999</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>4944.985228</v>
+        <v>4944.9852279999996</v>
       </c>
       <c r="AF25" s="1">
         <v>1.373607</v>
       </c>
       <c r="AG25" s="1">
-        <v>1360.280000</v>
+        <v>1360.28</v>
       </c>
       <c r="AH25" s="1">
-        <v>-179.434000</v>
+        <v>-179.434</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>4955.873908</v>
+        <v>4955.8739079999996</v>
       </c>
       <c r="AK25" s="1">
-        <v>1.376632</v>
+        <v>1.3766320000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>1380.820000</v>
+        <v>1380.82</v>
       </c>
       <c r="AM25" s="1">
-        <v>-209.600000</v>
+        <v>-209.6</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>4967.279907</v>
+        <v>4967.2799070000001</v>
       </c>
       <c r="AP25" s="1">
-        <v>1.379800</v>
+        <v>1.3797999999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1402.360000</v>
+        <v>1402.36</v>
       </c>
       <c r="AR25" s="1">
-        <v>-253.847000</v>
+        <v>-253.84700000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>4978.414565</v>
       </c>
       <c r="AU25" s="1">
-        <v>1.382893</v>
+        <v>1.3828929999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>1426.880000</v>
+        <v>1426.88</v>
       </c>
       <c r="AW25" s="1">
-        <v>-314.246000</v>
+        <v>-314.24599999999998</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>4989.334486</v>
+        <v>4989.3344859999997</v>
       </c>
       <c r="AZ25" s="1">
         <v>1.385926</v>
       </c>
       <c r="BA25" s="1">
-        <v>1446.060000</v>
+        <v>1446.06</v>
       </c>
       <c r="BB25" s="1">
-        <v>-366.829000</v>
+        <v>-366.82900000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>4999.988553</v>
+        <v>4999.9885530000001</v>
       </c>
       <c r="BE25" s="1">
-        <v>1.388886</v>
+        <v>1.3888860000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1530.390000</v>
+        <v>1530.39</v>
       </c>
       <c r="BG25" s="1">
-        <v>-618.030000</v>
+        <v>-618.03</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>5010.730447</v>
+        <v>5010.7304469999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>1.391870</v>
+        <v>1.3918699999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1682.770000</v>
+        <v>1682.77</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1070.200000</v>
+        <v>-1070.2</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>5021.795692</v>
+        <v>5021.7956919999997</v>
       </c>
       <c r="BO25" s="1">
         <v>1.394943</v>
       </c>
       <c r="BP25" s="1">
-        <v>1974.830000</v>
+        <v>1974.83</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1857.180000</v>
+        <v>-1857.18</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>5032.504317</v>
+        <v>5032.5043169999999</v>
       </c>
       <c r="BT25" s="1">
         <v>1.397918</v>
       </c>
       <c r="BU25" s="1">
-        <v>2358.890000</v>
+        <v>2358.89</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2769.260000</v>
+        <v>-2769.26</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>5043.446062</v>
@@ -6617,225 +7033,225 @@
         <v>1.400957</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2847.200000</v>
+        <v>2847.2</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3768.850000</v>
+        <v>-3768.85</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>5056.612368</v>
+        <v>5056.6123680000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>1.404615</v>
+        <v>1.4046149999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>4291.160000</v>
+        <v>4291.16</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6199.130000</v>
+        <v>-6199.13</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>4882.488291</v>
+        <v>4882.4882909999997</v>
       </c>
       <c r="B26" s="1">
         <v>1.356247</v>
       </c>
       <c r="C26" s="1">
-        <v>1244.540000</v>
+        <v>1244.54</v>
       </c>
       <c r="D26" s="1">
-        <v>-309.434000</v>
+        <v>-309.43400000000003</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>4892.908247</v>
+        <v>4892.9082470000003</v>
       </c>
       <c r="G26" s="1">
-        <v>1.359141</v>
+        <v>1.3591409999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>1269.840000</v>
+        <v>1269.8399999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>-266.688000</v>
+        <v>-266.68799999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>4903.413017</v>
+        <v>4903.4130169999999</v>
       </c>
       <c r="L26" s="1">
-        <v>1.362059</v>
+        <v>1.3620589999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>1305.520000</v>
+        <v>1305.52</v>
       </c>
       <c r="N26" s="1">
-        <v>-203.991000</v>
+        <v>-203.99100000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>4913.991690</v>
+        <v>4913.9916899999998</v>
       </c>
       <c r="Q26" s="1">
-        <v>1.364998</v>
+        <v>1.3649979999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>1317.190000</v>
+        <v>1317.19</v>
       </c>
       <c r="S26" s="1">
-        <v>-185.312000</v>
+        <v>-185.31200000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>4924.380925</v>
+        <v>4924.3809250000004</v>
       </c>
       <c r="V26" s="1">
-        <v>1.367884</v>
+        <v>1.3678840000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>1330.100000</v>
+        <v>1330.1</v>
       </c>
       <c r="X26" s="1">
-        <v>-171.806000</v>
+        <v>-171.80600000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>4935.187257</v>
+        <v>4935.1872569999996</v>
       </c>
       <c r="AA26" s="1">
-        <v>1.370885</v>
+        <v>1.3708849999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>1347.370000</v>
+        <v>1347.37</v>
       </c>
       <c r="AC26" s="1">
-        <v>-169.547000</v>
+        <v>-169.547</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>4945.655297</v>
+        <v>4945.6552970000002</v>
       </c>
       <c r="AF26" s="1">
         <v>1.373793</v>
       </c>
       <c r="AG26" s="1">
-        <v>1360.200000</v>
+        <v>1360.2</v>
       </c>
       <c r="AH26" s="1">
-        <v>-179.486000</v>
+        <v>-179.48599999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>4956.264722</v>
+        <v>4956.2647219999999</v>
       </c>
       <c r="AK26" s="1">
-        <v>1.376740</v>
+        <v>1.3767400000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>1380.810000</v>
+        <v>1380.81</v>
       </c>
       <c r="AM26" s="1">
-        <v>-209.607000</v>
+        <v>-209.607</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>4967.638483</v>
+        <v>4967.6384829999997</v>
       </c>
       <c r="AP26" s="1">
-        <v>1.379900</v>
+        <v>1.3798999999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1402.370000</v>
+        <v>1402.37</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.801000</v>
+        <v>-253.80099999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>4978.781604</v>
+        <v>4978.7816039999998</v>
       </c>
       <c r="AU26" s="1">
         <v>1.382995</v>
       </c>
       <c r="AV26" s="1">
-        <v>1426.840000</v>
+        <v>1426.84</v>
       </c>
       <c r="AW26" s="1">
-        <v>-314.248000</v>
+        <v>-314.24799999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>4989.694608</v>
+        <v>4989.6946079999998</v>
       </c>
       <c r="AZ26" s="1">
         <v>1.386026</v>
       </c>
       <c r="BA26" s="1">
-        <v>1446.040000</v>
+        <v>1446.04</v>
       </c>
       <c r="BB26" s="1">
-        <v>-366.887000</v>
+        <v>-366.887</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>5000.409160</v>
+        <v>5000.4091600000002</v>
       </c>
       <c r="BE26" s="1">
         <v>1.389003</v>
       </c>
       <c r="BF26" s="1">
-        <v>1530.400000</v>
+        <v>1530.4</v>
       </c>
       <c r="BG26" s="1">
-        <v>-618.087000</v>
+        <v>-618.08699999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>5011.155979</v>
+        <v>5011.1559790000001</v>
       </c>
       <c r="BJ26" s="1">
         <v>1.391988</v>
       </c>
       <c r="BK26" s="1">
-        <v>1682.750000</v>
+        <v>1682.75</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1070.170000</v>
+        <v>-1070.17</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>5022.194939</v>
@@ -6844,60 +7260,61 @@
         <v>1.395054</v>
       </c>
       <c r="BP26" s="1">
-        <v>1974.700000</v>
+        <v>1974.7</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1857.300000</v>
+        <v>-1857.3</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>5032.932830</v>
+        <v>5032.9328299999997</v>
       </c>
       <c r="BT26" s="1">
         <v>1.398037</v>
       </c>
       <c r="BU26" s="1">
-        <v>2359.240000</v>
+        <v>2359.2399999999998</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2768.910000</v>
+        <v>-2768.91</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>5043.868126</v>
+        <v>5043.8681260000003</v>
       </c>
       <c r="BY26" s="1">
-        <v>1.401074</v>
+        <v>1.4010739999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2847.600000</v>
+        <v>2847.6</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3768.820000</v>
+        <v>-3768.82</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>5057.144572</v>
+        <v>5057.1445720000002</v>
       </c>
       <c r="CD26" s="1">
-        <v>1.404762</v>
+        <v>1.4047620000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>4298.350000</v>
+        <v>4298.3500000000004</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6184.550000</v>
+        <v>-6184.55</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>